--- a/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043522606807831</v>
+        <v>1.063917520961906</v>
       </c>
       <c r="D2">
-        <v>1.058616849866547</v>
+        <v>1.077442866887692</v>
       </c>
       <c r="E2">
-        <v>1.051819370410186</v>
+        <v>1.069923834828389</v>
       </c>
       <c r="F2">
-        <v>1.06276066701838</v>
+        <v>1.081775956837277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06728334251636</v>
+        <v>1.081875338482889</v>
       </c>
       <c r="J2">
-        <v>1.064475163688232</v>
+        <v>1.084341174661012</v>
       </c>
       <c r="K2">
-        <v>1.069315775341378</v>
+        <v>1.087919285007678</v>
       </c>
       <c r="L2">
-        <v>1.062601069784644</v>
+        <v>1.080487958762038</v>
       </c>
       <c r="M2">
-        <v>1.073409777057913</v>
+        <v>1.092202515165312</v>
       </c>
       <c r="N2">
-        <v>1.065986840517676</v>
+        <v>1.085881063504702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052090129090012</v>
+        <v>1.070994576546779</v>
       </c>
       <c r="D3">
-        <v>1.065565933204737</v>
+        <v>1.083301433009255</v>
       </c>
       <c r="E3">
-        <v>1.059375228988024</v>
+        <v>1.076205372814758</v>
       </c>
       <c r="F3">
-        <v>1.070505624861381</v>
+        <v>1.088276174598096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070612648708833</v>
+        <v>1.08509216407044</v>
       </c>
       <c r="J3">
-        <v>1.071254906786089</v>
+        <v>1.089720669127301</v>
       </c>
       <c r="K3">
-        <v>1.07542337565311</v>
+        <v>1.092968863459736</v>
       </c>
       <c r="L3">
-        <v>1.069300837812008</v>
+        <v>1.085947907663756</v>
       </c>
       <c r="M3">
-        <v>1.080309369565252</v>
+        <v>1.097891665703973</v>
       </c>
       <c r="N3">
-        <v>1.07277621162838</v>
+        <v>1.09126819747017</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057451295608296</v>
+        <v>1.075444352795071</v>
       </c>
       <c r="D4">
-        <v>1.069916195365703</v>
+        <v>1.086986948591398</v>
       </c>
       <c r="E4">
-        <v>1.064104665961985</v>
+        <v>1.080155484279792</v>
       </c>
       <c r="F4">
-        <v>1.075356454816125</v>
+        <v>1.092366988588913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072681267721186</v>
+        <v>1.087102893701661</v>
       </c>
       <c r="J4">
-        <v>1.075491419831258</v>
+        <v>1.09309702205754</v>
       </c>
       <c r="K4">
-        <v>1.079238129884327</v>
+        <v>1.096137736006817</v>
       </c>
       <c r="L4">
-        <v>1.073486393829088</v>
+        <v>1.08937397301759</v>
       </c>
       <c r="M4">
-        <v>1.084623128821181</v>
+        <v>1.101465181153023</v>
       </c>
       <c r="N4">
-        <v>1.077018741008008</v>
+        <v>1.094649345208842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059664141085136</v>
+        <v>1.077285641294782</v>
       </c>
       <c r="D5">
-        <v>1.071712122323116</v>
+        <v>1.088512377519552</v>
       </c>
       <c r="E5">
-        <v>1.066057000614103</v>
+        <v>1.081790089301535</v>
       </c>
       <c r="F5">
-        <v>1.077359617950182</v>
+        <v>1.094060580248875</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073531512595244</v>
+        <v>1.0879320315904</v>
       </c>
       <c r="J5">
-        <v>1.077238575172908</v>
+        <v>1.09449264118899</v>
       </c>
       <c r="K5">
-        <v>1.080810908182125</v>
+        <v>1.097447483902388</v>
       </c>
       <c r="L5">
-        <v>1.075212293621511</v>
+        <v>1.090789949414374</v>
       </c>
       <c r="M5">
-        <v>1.086402691208406</v>
+        <v>1.10294296687785</v>
       </c>
       <c r="N5">
-        <v>1.078768377510645</v>
+        <v>1.096046946279539</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060033358394256</v>
+        <v>1.07759312257164</v>
       </c>
       <c r="D6">
-        <v>1.072011792923009</v>
+        <v>1.08876713357427</v>
       </c>
       <c r="E6">
-        <v>1.066382763059881</v>
+        <v>1.082063058947627</v>
       </c>
       <c r="F6">
-        <v>1.077693903415099</v>
+        <v>1.09434344508174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073673164903869</v>
+        <v>1.088070320400161</v>
       </c>
       <c r="J6">
-        <v>1.077530002295177</v>
+        <v>1.094725610103198</v>
       </c>
       <c r="K6">
-        <v>1.081073222441439</v>
+        <v>1.09766611175697</v>
       </c>
       <c r="L6">
-        <v>1.075500161008698</v>
+        <v>1.091026305188527</v>
       </c>
       <c r="M6">
-        <v>1.08669955583662</v>
+        <v>1.103189690976143</v>
       </c>
       <c r="N6">
-        <v>1.079060218492855</v>
+        <v>1.096280246036327</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057481021406614</v>
+        <v>1.075469069647262</v>
       </c>
       <c r="D7">
-        <v>1.069940319375095</v>
+        <v>1.087007424000755</v>
       </c>
       <c r="E7">
-        <v>1.064130891398176</v>
+        <v>1.080177426451424</v>
       </c>
       <c r="F7">
-        <v>1.075383360197918</v>
+        <v>1.09238971955673</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07269270358839</v>
+        <v>1.087114035255995</v>
       </c>
       <c r="J7">
-        <v>1.075514895831593</v>
+        <v>1.093115762351162</v>
       </c>
       <c r="K7">
-        <v>1.079259264611838</v>
+        <v>1.096155323670357</v>
       </c>
       <c r="L7">
-        <v>1.073509585184601</v>
+        <v>1.089392987429453</v>
       </c>
       <c r="M7">
-        <v>1.084647038102838</v>
+        <v>1.101485022132236</v>
       </c>
       <c r="N7">
-        <v>1.077042250346956</v>
+        <v>1.094668112115831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046457573530811</v>
+        <v>1.066337084345353</v>
       </c>
       <c r="D8">
-        <v>1.060996932661399</v>
+        <v>1.079445406148797</v>
       </c>
       <c r="E8">
-        <v>1.05440744139362</v>
+        <v>1.072071276274797</v>
       </c>
       <c r="F8">
-        <v>1.065412861830721</v>
+        <v>1.083997483836635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068426934479075</v>
+        <v>1.082977616393169</v>
       </c>
       <c r="J8">
-        <v>1.066798912311249</v>
+        <v>1.086181615333556</v>
       </c>
       <c r="K8">
-        <v>1.071409504891707</v>
+        <v>1.089646935596278</v>
       </c>
       <c r="L8">
-        <v>1.064897611774336</v>
+        <v>1.082356087815152</v>
       </c>
       <c r="M8">
-        <v>1.075774095713499</v>
+        <v>1.094148298620049</v>
       </c>
       <c r="N8">
-        <v>1.068313889130276</v>
+        <v>1.087724117814102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025496308700259</v>
+        <v>1.049173197338372</v>
       </c>
       <c r="D9">
-        <v>1.044011566083514</v>
+        <v>1.065250816648028</v>
       </c>
       <c r="E9">
-        <v>1.035933216587239</v>
+        <v>1.056842395585288</v>
       </c>
       <c r="F9">
-        <v>1.046494573216634</v>
+        <v>1.068257075925303</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060198049912566</v>
+        <v>1.075108665344118</v>
       </c>
       <c r="J9">
-        <v>1.050179773287635</v>
+        <v>1.073101505167303</v>
       </c>
       <c r="K9">
-        <v>1.056428778506285</v>
+        <v>1.07736707176181</v>
       </c>
       <c r="L9">
-        <v>1.048469014386991</v>
+        <v>1.069075968986625</v>
       </c>
       <c r="M9">
-        <v>1.058875802757498</v>
+        <v>1.080331950939015</v>
       </c>
       <c r="N9">
-        <v>1.051671149023008</v>
+        <v>1.074625432391104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010266356698397</v>
+        <v>1.03688494492713</v>
       </c>
       <c r="D10">
-        <v>1.031693525880347</v>
+        <v>1.055106122212798</v>
       </c>
       <c r="E10">
-        <v>1.022527554055826</v>
+        <v>1.045948381448728</v>
       </c>
       <c r="F10">
-        <v>1.032784868151724</v>
+        <v>1.057015042706937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054143327186529</v>
+        <v>1.069413419816337</v>
       </c>
       <c r="J10">
-        <v>1.038078490148367</v>
+        <v>1.063707877480799</v>
       </c>
       <c r="K10">
-        <v>1.045513189122012</v>
+        <v>1.068546931538644</v>
       </c>
       <c r="L10">
-        <v>1.036501640067057</v>
+        <v>1.059534787022424</v>
       </c>
       <c r="M10">
-        <v>1.046586380261236</v>
+        <v>1.07042590905531</v>
       </c>
       <c r="N10">
-        <v>1.039552680673645</v>
+        <v>1.065218464675821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003313277785946</v>
+        <v>1.031331068822434</v>
       </c>
       <c r="D11">
-        <v>1.026077740287268</v>
+        <v>1.050526576016771</v>
       </c>
       <c r="E11">
-        <v>1.01641331769826</v>
+        <v>1.041027842265094</v>
       </c>
       <c r="F11">
-        <v>1.026536506440646</v>
+        <v>1.051941623880647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051362271311598</v>
+        <v>1.06682541749095</v>
       </c>
       <c r="J11">
-        <v>1.032548867178865</v>
+        <v>1.059456125929903</v>
       </c>
       <c r="K11">
-        <v>1.040524073671269</v>
+        <v>1.064554647146064</v>
       </c>
       <c r="L11">
-        <v>1.031032201701865</v>
+        <v>1.055215401644341</v>
       </c>
       <c r="M11">
-        <v>1.040974753634619</v>
+        <v>1.065946252948628</v>
       </c>
       <c r="N11">
-        <v>1.03401520500527</v>
+        <v>1.06096067515004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000670580711196</v>
+        <v>1.029229948330475</v>
       </c>
       <c r="D12">
-        <v>1.023944738626964</v>
+        <v>1.048795012609354</v>
       </c>
       <c r="E12">
-        <v>1.01409053150522</v>
+        <v>1.039166905706366</v>
       </c>
       <c r="F12">
-        <v>1.024163470358589</v>
+        <v>1.050023521628312</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050302848393217</v>
+        <v>1.065844304853562</v>
       </c>
       <c r="J12">
-        <v>1.030446587446888</v>
+        <v>1.057846769545717</v>
       </c>
       <c r="K12">
-        <v>1.038627137082085</v>
+        <v>1.06304350474241</v>
       </c>
       <c r="L12">
-        <v>1.028952668082576</v>
+        <v>1.053580325869596</v>
       </c>
       <c r="M12">
-        <v>1.038841930200728</v>
+        <v>1.064251250282257</v>
       </c>
       <c r="N12">
-        <v>1.031909939794938</v>
+        <v>1.059349033295192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001240273998681</v>
+        <v>1.029682427822805</v>
       </c>
       <c r="D13">
-        <v>1.024404487195045</v>
+        <v>1.049167862309218</v>
       </c>
       <c r="E13">
-        <v>1.014591208396149</v>
+        <v>1.039567633155747</v>
       </c>
       <c r="F13">
-        <v>1.024674946505407</v>
+        <v>1.050436529371448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050531337689645</v>
+        <v>1.06605567945204</v>
       </c>
       <c r="J13">
-        <v>1.030899806405291</v>
+        <v>1.058193384018691</v>
       </c>
       <c r="K13">
-        <v>1.039036093225316</v>
+        <v>1.063368966058231</v>
       </c>
       <c r="L13">
-        <v>1.029400989139875</v>
+        <v>1.053932484861441</v>
       </c>
       <c r="M13">
-        <v>1.039301704713998</v>
+        <v>1.064616282586332</v>
       </c>
       <c r="N13">
-        <v>1.032363802376247</v>
+        <v>1.059696140000475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003096095136737</v>
+        <v>1.031158187740681</v>
       </c>
       <c r="D14">
-        <v>1.025902415242803</v>
+        <v>1.050384082173942</v>
       </c>
       <c r="E14">
-        <v>1.016222402833866</v>
+        <v>1.040874711172062</v>
       </c>
       <c r="F14">
-        <v>1.026341447041525</v>
+        <v>1.051783775511118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051275253690225</v>
+        <v>1.066744731897626</v>
       </c>
       <c r="J14">
-        <v>1.032376108605702</v>
+        <v>1.059323724207066</v>
       </c>
       <c r="K14">
-        <v>1.040368192294769</v>
+        <v>1.064430325350652</v>
       </c>
       <c r="L14">
-        <v>1.030861314965857</v>
+        <v>1.055080886345169</v>
       </c>
       <c r="M14">
-        <v>1.040799472032558</v>
+        <v>1.065806792460008</v>
       </c>
       <c r="N14">
-        <v>1.033842201095117</v>
+        <v>1.06082808540157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004231373860725</v>
+        <v>1.032062293921588</v>
       </c>
       <c r="D15">
-        <v>1.026818950941099</v>
+        <v>1.051129313456119</v>
       </c>
       <c r="E15">
-        <v>1.017220417276906</v>
+        <v>1.041675556298756</v>
       </c>
       <c r="F15">
-        <v>1.027361155890834</v>
+        <v>1.052609317635321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051730023782318</v>
+        <v>1.067166606565661</v>
       </c>
       <c r="J15">
-        <v>1.033279145729297</v>
+        <v>1.060016103711515</v>
       </c>
       <c r="K15">
-        <v>1.041183003772131</v>
+        <v>1.065080451975734</v>
       </c>
       <c r="L15">
-        <v>1.031754562311089</v>
+        <v>1.055784313774417</v>
       </c>
       <c r="M15">
-        <v>1.041715723344224</v>
+        <v>1.066536110222777</v>
       </c>
       <c r="N15">
-        <v>1.034746520635007</v>
+        <v>1.061521448164332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010719754122336</v>
+        <v>1.037248367621346</v>
       </c>
       <c r="D16">
-        <v>1.032059902661843</v>
+        <v>1.055405913089545</v>
       </c>
       <c r="E16">
-        <v>1.022926390578851</v>
+        <v>1.046270435637817</v>
       </c>
       <c r="F16">
-        <v>1.033192549264673</v>
+        <v>1.057347192756591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05432433717129</v>
+        <v>1.069582484597839</v>
       </c>
       <c r="J16">
-        <v>1.038438976210424</v>
+        <v>1.06398597319402</v>
       </c>
       <c r="K16">
-        <v>1.045838415509373</v>
+        <v>1.068808055436981</v>
       </c>
       <c r="L16">
-        <v>1.036858183129141</v>
+        <v>1.059817289620458</v>
       </c>
       <c r="M16">
-        <v>1.046952297003083</v>
+        <v>1.070718995871928</v>
       </c>
       <c r="N16">
-        <v>1.039913678667259</v>
+        <v>1.065496955316852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014689732348296</v>
+        <v>1.040436965146027</v>
       </c>
       <c r="D17">
-        <v>1.035268833206963</v>
+        <v>1.058036854098242</v>
       </c>
       <c r="E17">
-        <v>1.026419321184505</v>
+        <v>1.049096445481124</v>
       </c>
       <c r="F17">
-        <v>1.036763452139493</v>
+        <v>1.060262280907017</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055907394889452</v>
+        <v>1.07106425768615</v>
       </c>
       <c r="J17">
-        <v>1.041594879313224</v>
+        <v>1.066425242730247</v>
       </c>
       <c r="K17">
-        <v>1.048685495025015</v>
+        <v>1.071098449619577</v>
       </c>
       <c r="L17">
-        <v>1.039979455718164</v>
+        <v>1.062295118618547</v>
       </c>
       <c r="M17">
-        <v>1.050156192388465</v>
+        <v>1.073290213027099</v>
       </c>
       <c r="N17">
-        <v>1.043074063514451</v>
+        <v>1.067939688895609</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016971236916944</v>
+        <v>1.042274573602041</v>
       </c>
       <c r="D18">
-        <v>1.03711369219251</v>
+        <v>1.059553591466403</v>
       </c>
       <c r="E18">
-        <v>1.028427217082802</v>
+        <v>1.050725384935423</v>
       </c>
       <c r="F18">
-        <v>1.038816593718417</v>
+        <v>1.061942971167512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056815580008488</v>
+        <v>1.071916897071858</v>
       </c>
       <c r="J18">
-        <v>1.043408075591675</v>
+        <v>1.067830425589359</v>
       </c>
       <c r="K18">
-        <v>1.050321135910719</v>
+        <v>1.072417859208567</v>
       </c>
       <c r="L18">
-        <v>1.041772660367905</v>
+        <v>1.063722434058096</v>
       </c>
       <c r="M18">
-        <v>1.05199732997129</v>
+        <v>1.07477178366266</v>
       </c>
       <c r="N18">
-        <v>1.044889834739594</v>
+        <v>1.069346867275558</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017743555912898</v>
+        <v>1.042897467030643</v>
       </c>
       <c r="D19">
-        <v>1.037738316729127</v>
+        <v>1.060067802357046</v>
       </c>
       <c r="E19">
-        <v>1.029107003422829</v>
+        <v>1.051277592654954</v>
       </c>
       <c r="F19">
-        <v>1.039511769562016</v>
+        <v>1.062512790904752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057122741009178</v>
+        <v>1.072205690934125</v>
       </c>
       <c r="J19">
-        <v>1.044021783152409</v>
+        <v>1.068306638904819</v>
       </c>
       <c r="K19">
-        <v>1.050874724624725</v>
+        <v>1.072865001789903</v>
       </c>
       <c r="L19">
-        <v>1.04237958489491</v>
+        <v>1.064206134213172</v>
       </c>
       <c r="M19">
-        <v>1.052620556128976</v>
+        <v>1.075273948188935</v>
       </c>
       <c r="N19">
-        <v>1.045504413835458</v>
+        <v>1.069823756868547</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014267361538368</v>
+        <v>1.040097181490249</v>
       </c>
       <c r="D20">
-        <v>1.034927354669152</v>
+        <v>1.057756441679525</v>
       </c>
       <c r="E20">
-        <v>1.026047646059799</v>
+        <v>1.048795268838511</v>
       </c>
       <c r="F20">
-        <v>1.036383435947243</v>
+        <v>1.059951568771975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055739135182215</v>
+        <v>1.07090649310183</v>
       </c>
       <c r="J20">
-        <v>1.041259166743804</v>
+        <v>1.066165369155199</v>
       </c>
       <c r="K20">
-        <v>1.048382646453843</v>
+        <v>1.070854437880682</v>
       </c>
       <c r="L20">
-        <v>1.039647436786735</v>
+        <v>1.062031145302064</v>
       </c>
       <c r="M20">
-        <v>1.049815336084482</v>
+        <v>1.073016242798607</v>
       </c>
       <c r="N20">
-        <v>1.042737874194676</v>
+        <v>1.067679446270277</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002551313315854</v>
+        <v>1.030724694073881</v>
       </c>
       <c r="D21">
-        <v>1.025462652917655</v>
+        <v>1.050026799277087</v>
       </c>
       <c r="E21">
-        <v>1.015743529380115</v>
+        <v>1.040490749694899</v>
       </c>
       <c r="F21">
-        <v>1.025852189199411</v>
+        <v>1.051387996438114</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051056940050644</v>
+        <v>1.06654238299794</v>
       </c>
       <c r="J21">
-        <v>1.031942751103099</v>
+        <v>1.05899171779628</v>
       </c>
       <c r="K21">
-        <v>1.039977168274071</v>
+        <v>1.064118579998121</v>
       </c>
       <c r="L21">
-        <v>1.030432650775164</v>
+        <v>1.054743578115996</v>
       </c>
       <c r="M21">
-        <v>1.040359795919691</v>
+        <v>1.065457095719637</v>
       </c>
       <c r="N21">
-        <v>1.033408228175153</v>
+        <v>1.060495607503599</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9948339106385435</v>
+        <v>1.024609172442509</v>
       </c>
       <c r="D22">
-        <v>1.019236706870347</v>
+        <v>1.044988870712515</v>
       </c>
       <c r="E22">
-        <v>1.008962662375927</v>
+        <v>1.03507554050615</v>
       </c>
       <c r="F22">
-        <v>1.018925994001744</v>
+        <v>1.04580768502315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047958693291205</v>
+        <v>1.063682980037124</v>
       </c>
       <c r="J22">
-        <v>1.025802535119055</v>
+        <v>1.054305998885655</v>
       </c>
       <c r="K22">
-        <v>1.034436476340064</v>
+        <v>1.059718839547881</v>
       </c>
       <c r="L22">
-        <v>1.024358633849879</v>
+        <v>1.049982760862082</v>
       </c>
       <c r="M22">
-        <v>1.034131621304862</v>
+        <v>1.060523208146559</v>
       </c>
       <c r="N22">
-        <v>1.02725929238012</v>
+        <v>1.055803234334661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9989606630346105</v>
+        <v>1.027873393676629</v>
       </c>
       <c r="D23">
-        <v>1.022565045518965</v>
+        <v>1.04767734166722</v>
       </c>
       <c r="E23">
-        <v>1.012587940028818</v>
+        <v>1.037965600076841</v>
       </c>
       <c r="F23">
-        <v>1.022628573969105</v>
+        <v>1.048785498123795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049616701088891</v>
+        <v>1.065210301787646</v>
       </c>
       <c r="J23">
-        <v>1.029086186931997</v>
+        <v>1.05680748458181</v>
       </c>
       <c r="K23">
-        <v>1.037399579399135</v>
+        <v>1.06206764680677</v>
       </c>
       <c r="L23">
-        <v>1.027606950894955</v>
+        <v>1.052524399584472</v>
       </c>
       <c r="M23">
-        <v>1.037461948218746</v>
+        <v>1.063156833502386</v>
       </c>
       <c r="N23">
-        <v>1.030547607355276</v>
+        <v>1.058308272427429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014458317702289</v>
+        <v>1.040250783612653</v>
       </c>
       <c r="D24">
-        <v>1.035081736769063</v>
+        <v>1.057883202949562</v>
       </c>
       <c r="E24">
-        <v>1.026215680742914</v>
+        <v>1.048931417427797</v>
       </c>
       <c r="F24">
-        <v>1.036555240319344</v>
+        <v>1.060092026676001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055815211246502</v>
+        <v>1.070977816029296</v>
       </c>
       <c r="J24">
-        <v>1.041410945705616</v>
+        <v>1.066282849055611</v>
       </c>
       <c r="K24">
-        <v>1.04851956766544</v>
+        <v>1.070964747226512</v>
       </c>
       <c r="L24">
-        <v>1.039797546114844</v>
+        <v>1.06215047880442</v>
       </c>
       <c r="M24">
-        <v>1.049969439438332</v>
+        <v>1.073140094140556</v>
       </c>
       <c r="N24">
-        <v>1.042889868700023</v>
+        <v>1.067797093005622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031118479231054</v>
+        <v>1.053749566080767</v>
       </c>
       <c r="D25">
-        <v>1.048564117396297</v>
+        <v>1.069032858534789</v>
       </c>
       <c r="E25">
-        <v>1.040885940839422</v>
+        <v>1.06090164243865</v>
       </c>
       <c r="F25">
-        <v>1.051563335733066</v>
+        <v>1.072449637688798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062418336487831</v>
+        <v>1.07721743873732</v>
       </c>
       <c r="J25">
-        <v>1.054642123461461</v>
+        <v>1.076594209901194</v>
       </c>
       <c r="K25">
-        <v>1.060452572221284</v>
+        <v>1.080646354233072</v>
       </c>
       <c r="L25">
-        <v>1.052881058706681</v>
+        <v>1.072622770325508</v>
       </c>
       <c r="M25">
-        <v>1.063410659026092</v>
+        <v>1.084018515646762</v>
       </c>
       <c r="N25">
-        <v>1.056139836245919</v>
+        <v>1.078123097166336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063917520961906</v>
+        <v>0.9654907643507796</v>
       </c>
       <c r="D2">
-        <v>1.077442866887692</v>
+        <v>0.9909410204974283</v>
       </c>
       <c r="E2">
-        <v>1.069923834828389</v>
+        <v>0.9741685343264226</v>
       </c>
       <c r="F2">
-        <v>1.081775956837277</v>
+        <v>0.9404165842304503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.081875338482889</v>
+        <v>1.031922783209725</v>
       </c>
       <c r="J2">
-        <v>1.084341174661012</v>
+        <v>0.988755019043051</v>
       </c>
       <c r="K2">
-        <v>1.087919285007678</v>
+        <v>1.002528020873888</v>
       </c>
       <c r="L2">
-        <v>1.080487958762038</v>
+        <v>0.9859998716858105</v>
       </c>
       <c r="M2">
-        <v>1.092202515165312</v>
+        <v>0.952773535414713</v>
       </c>
       <c r="N2">
-        <v>1.085881063504702</v>
+        <v>0.9901591645818777</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.070994576546779</v>
+        <v>0.9769377782726559</v>
       </c>
       <c r="D3">
-        <v>1.083301433009255</v>
+        <v>0.9997854397836442</v>
       </c>
       <c r="E3">
-        <v>1.076205372814758</v>
+        <v>0.9840772148632381</v>
       </c>
       <c r="F3">
-        <v>1.088276174598096</v>
+        <v>0.9551008209614458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.08509216407044</v>
+        <v>1.035901098305474</v>
       </c>
       <c r="J3">
-        <v>1.089720669127301</v>
+        <v>0.998077515803948</v>
       </c>
       <c r="K3">
-        <v>1.092968863459736</v>
+        <v>1.010421066684091</v>
       </c>
       <c r="L3">
-        <v>1.085947907663756</v>
+        <v>0.9949179680096973</v>
       </c>
       <c r="M3">
-        <v>1.097891665703973</v>
+        <v>0.9663423658622405</v>
       </c>
       <c r="N3">
-        <v>1.09126819747017</v>
+        <v>0.9994949003574809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.075444352795071</v>
+        <v>0.9839783851463014</v>
       </c>
       <c r="D4">
-        <v>1.086986948591398</v>
+        <v>1.005228524489157</v>
       </c>
       <c r="E4">
-        <v>1.080155484279792</v>
+        <v>0.9901733654860836</v>
       </c>
       <c r="F4">
-        <v>1.092366988588913</v>
+        <v>0.9641161828189446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.087102893701661</v>
+        <v>1.03832812846267</v>
       </c>
       <c r="J4">
-        <v>1.09309702205754</v>
+        <v>1.003800998517013</v>
       </c>
       <c r="K4">
-        <v>1.096137736006817</v>
+        <v>1.015264252778433</v>
       </c>
       <c r="L4">
-        <v>1.08937397301759</v>
+        <v>1.000391854265676</v>
       </c>
       <c r="M4">
-        <v>1.101465181153023</v>
+        <v>0.9746678970722132</v>
       </c>
       <c r="N4">
-        <v>1.094649345208842</v>
+        <v>1.005226511072491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077285641294782</v>
+        <v>0.9868587388353943</v>
       </c>
       <c r="D5">
-        <v>1.088512377519552</v>
+        <v>1.007455842516652</v>
       </c>
       <c r="E5">
-        <v>1.081790089301535</v>
+        <v>0.992667586598993</v>
       </c>
       <c r="F5">
-        <v>1.094060580248875</v>
+        <v>0.9678015032635556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0879320315904</v>
+        <v>1.039316173292202</v>
       </c>
       <c r="J5">
-        <v>1.09449264118899</v>
+        <v>1.006139972752384</v>
       </c>
       <c r="K5">
-        <v>1.097447483902388</v>
+        <v>1.017242743187997</v>
       </c>
       <c r="L5">
-        <v>1.090789949414374</v>
+        <v>1.002628475881025</v>
       </c>
       <c r="M5">
-        <v>1.10294296687785</v>
+        <v>0.9780699145954481</v>
       </c>
       <c r="N5">
-        <v>1.096046946279539</v>
+        <v>1.00756880691956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07759312257164</v>
+        <v>0.9873379146745873</v>
       </c>
       <c r="D6">
-        <v>1.08876713357427</v>
+        <v>1.00782640305464</v>
       </c>
       <c r="E6">
-        <v>1.082063058947627</v>
+        <v>0.9930825358488197</v>
       </c>
       <c r="F6">
-        <v>1.09434344508174</v>
+        <v>0.9684144476851116</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.088070320400161</v>
+        <v>1.039480255224132</v>
       </c>
       <c r="J6">
-        <v>1.094725610103198</v>
+        <v>1.006528934323711</v>
       </c>
       <c r="K6">
-        <v>1.09766611175697</v>
+        <v>1.017571711774972</v>
       </c>
       <c r="L6">
-        <v>1.091026305188527</v>
+        <v>1.003000395017314</v>
       </c>
       <c r="M6">
-        <v>1.103189690976143</v>
+        <v>0.9786356599486415</v>
       </c>
       <c r="N6">
-        <v>1.096280246036327</v>
+        <v>1.007958320860933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.075469069647262</v>
+        <v>0.9840171751390896</v>
       </c>
       <c r="D7">
-        <v>1.087007424000755</v>
+        <v>1.005258518239085</v>
       </c>
       <c r="E7">
-        <v>1.080177426451424</v>
+        <v>0.9902069545987653</v>
       </c>
       <c r="F7">
-        <v>1.09238971955673</v>
+        <v>0.9641658237624466</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.087114035255995</v>
+        <v>1.038341454022681</v>
       </c>
       <c r="J7">
-        <v>1.093115762351162</v>
+        <v>1.003832507828015</v>
       </c>
       <c r="K7">
-        <v>1.096155323670357</v>
+        <v>1.015290908914406</v>
       </c>
       <c r="L7">
-        <v>1.089392987429453</v>
+        <v>1.000421986182324</v>
       </c>
       <c r="M7">
-        <v>1.101485022132236</v>
+        <v>0.9747137272927396</v>
       </c>
       <c r="N7">
-        <v>1.094668112115831</v>
+        <v>1.005258065130328</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066337084345353</v>
+        <v>0.9694405642387351</v>
       </c>
       <c r="D8">
-        <v>1.079445406148797</v>
+        <v>0.9939919313524732</v>
       </c>
       <c r="E8">
-        <v>1.072071276274797</v>
+        <v>0.9775870564857644</v>
       </c>
       <c r="F8">
-        <v>1.083997483836635</v>
+        <v>0.9454875736917555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.082977616393169</v>
+        <v>1.033299692901626</v>
       </c>
       <c r="J8">
-        <v>1.086181615333556</v>
+        <v>0.991973959178113</v>
       </c>
       <c r="K8">
-        <v>1.089646935596278</v>
+        <v>1.005253905520323</v>
       </c>
       <c r="L8">
-        <v>1.082356087815152</v>
+        <v>0.9890794349737353</v>
       </c>
       <c r="M8">
-        <v>1.094148298620049</v>
+        <v>0.9574603399455036</v>
       </c>
       <c r="N8">
-        <v>1.087724117814102</v>
+        <v>0.9933826759811494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049173197338372</v>
+        <v>0.940492124553819</v>
       </c>
       <c r="D9">
-        <v>1.065250816648028</v>
+        <v>0.9716595572397524</v>
       </c>
       <c r="E9">
-        <v>1.056842395585288</v>
+        <v>0.95254881286894</v>
       </c>
       <c r="F9">
-        <v>1.068257075925303</v>
+        <v>0.9081908437377848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.075108665344118</v>
+        <v>1.023123225375348</v>
       </c>
       <c r="J9">
-        <v>1.073101505167303</v>
+        <v>0.9683366344523503</v>
       </c>
       <c r="K9">
-        <v>1.07736707176181</v>
+        <v>0.9852298065107443</v>
       </c>
       <c r="L9">
-        <v>1.069075968986625</v>
+        <v>0.9664617163112729</v>
       </c>
       <c r="M9">
-        <v>1.080331950939015</v>
+        <v>0.9229725790590706</v>
       </c>
       <c r="N9">
-        <v>1.074625432391104</v>
+        <v>0.9697117835430369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03688494492713</v>
+        <v>0.9181586749767517</v>
       </c>
       <c r="D10">
-        <v>1.055106122212798</v>
+        <v>0.9544872958360311</v>
       </c>
       <c r="E10">
-        <v>1.045948381448728</v>
+        <v>0.9332670813866851</v>
       </c>
       <c r="F10">
-        <v>1.057015042706937</v>
+        <v>0.8791478755765296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069413419816337</v>
+        <v>1.015167182094803</v>
       </c>
       <c r="J10">
-        <v>1.063707877480799</v>
+        <v>0.95004287338496</v>
       </c>
       <c r="K10">
-        <v>1.068546931538644</v>
+        <v>0.969729971789268</v>
       </c>
       <c r="L10">
-        <v>1.059534787022424</v>
+        <v>0.9489556601703431</v>
       </c>
       <c r="M10">
-        <v>1.07042590905531</v>
+        <v>0.896105609743304</v>
       </c>
       <c r="N10">
-        <v>1.065218464675821</v>
+        <v>0.9513920432366075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031331068822434</v>
+        <v>0.9074894808683175</v>
       </c>
       <c r="D11">
-        <v>1.050526576016771</v>
+        <v>0.9463057842151998</v>
       </c>
       <c r="E11">
-        <v>1.041027842265094</v>
+        <v>0.9240699498330556</v>
       </c>
       <c r="F11">
-        <v>1.051941623880647</v>
+        <v>0.8651640425241351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06682541749095</v>
+        <v>1.011344050402006</v>
       </c>
       <c r="J11">
-        <v>1.059456125929903</v>
+        <v>0.941290357135826</v>
       </c>
       <c r="K11">
-        <v>1.064554647146064</v>
+        <v>0.9623166746240278</v>
       </c>
       <c r="L11">
-        <v>1.055215401644341</v>
+        <v>0.9405814321734409</v>
       </c>
       <c r="M11">
-        <v>1.065946252948628</v>
+        <v>0.8831718569924791</v>
       </c>
       <c r="N11">
-        <v>1.06096067515004</v>
+        <v>0.942627097410472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029229948330475</v>
+        <v>0.9033418974766093</v>
       </c>
       <c r="D12">
-        <v>1.048795012609354</v>
+        <v>0.943129551159236</v>
       </c>
       <c r="E12">
-        <v>1.039166905706366</v>
+        <v>0.9204974355105201</v>
       </c>
       <c r="F12">
-        <v>1.050023521628312</v>
+        <v>0.8597057074019154</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.065844304853562</v>
+        <v>1.009854783513706</v>
       </c>
       <c r="J12">
-        <v>1.057846769545717</v>
+        <v>0.9378859417235857</v>
       </c>
       <c r="K12">
-        <v>1.06304350474241</v>
+        <v>0.9594338999509782</v>
       </c>
       <c r="L12">
-        <v>1.053580325869596</v>
+        <v>0.9373245981671021</v>
       </c>
       <c r="M12">
-        <v>1.064251250282257</v>
+        <v>0.8781244191933896</v>
       </c>
       <c r="N12">
-        <v>1.059349033295192</v>
+        <v>0.9392178473378542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029682427822805</v>
+        <v>0.9042406155294944</v>
       </c>
       <c r="D13">
-        <v>1.049167862309218</v>
+        <v>0.9438175818657273</v>
       </c>
       <c r="E13">
-        <v>1.039567633155747</v>
+        <v>0.9212714052987748</v>
       </c>
       <c r="F13">
-        <v>1.050436529371448</v>
+        <v>0.8608895603436758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06605567945204</v>
+        <v>1.010177616041493</v>
       </c>
       <c r="J13">
-        <v>1.058193384018691</v>
+        <v>0.9386237126065365</v>
       </c>
       <c r="K13">
-        <v>1.063368966058231</v>
+        <v>0.960058586238504</v>
       </c>
       <c r="L13">
-        <v>1.053932484861441</v>
+        <v>0.9380303622337838</v>
       </c>
       <c r="M13">
-        <v>1.064616282586332</v>
+        <v>0.8792190938124487</v>
       </c>
       <c r="N13">
-        <v>1.059696140000475</v>
+        <v>0.9399566659400824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031158187740681</v>
+        <v>0.9071506508423203</v>
       </c>
       <c r="D14">
-        <v>1.050384082173942</v>
+        <v>0.9460462146628876</v>
       </c>
       <c r="E14">
-        <v>1.040874711172062</v>
+        <v>0.9237780379841627</v>
       </c>
       <c r="F14">
-        <v>1.051783775511118</v>
+        <v>0.8647186199152729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.066744731897626</v>
+        <v>1.011222446363595</v>
       </c>
       <c r="J14">
-        <v>1.059323724207066</v>
+        <v>0.9410122775041552</v>
       </c>
       <c r="K14">
-        <v>1.064430325350652</v>
+        <v>0.9620811865338561</v>
       </c>
       <c r="L14">
-        <v>1.055080886345169</v>
+        <v>0.9403153968150453</v>
       </c>
       <c r="M14">
-        <v>1.065806792460008</v>
+        <v>0.8827599401598185</v>
       </c>
       <c r="N14">
-        <v>1.06082808540157</v>
+        <v>0.942348622873828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032062293921588</v>
+        <v>0.908917915534313</v>
       </c>
       <c r="D15">
-        <v>1.051129313456119</v>
+        <v>0.9474002519969449</v>
       </c>
       <c r="E15">
-        <v>1.041675556298756</v>
+        <v>0.9253007051184389</v>
       </c>
       <c r="F15">
-        <v>1.052609317635321</v>
+        <v>0.8670409167935085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067166606565661</v>
+        <v>1.011856586500698</v>
       </c>
       <c r="J15">
-        <v>1.060016103711515</v>
+        <v>0.9424626039591504</v>
       </c>
       <c r="K15">
-        <v>1.065080451975734</v>
+        <v>0.9633094082840491</v>
       </c>
       <c r="L15">
-        <v>1.055784313774417</v>
+        <v>0.9417029255475327</v>
       </c>
       <c r="M15">
-        <v>1.066536110222777</v>
+        <v>0.8849075935695114</v>
       </c>
       <c r="N15">
-        <v>1.061521448164332</v>
+        <v>0.9438010089587442</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037248367621346</v>
+        <v>0.9188430344247817</v>
       </c>
       <c r="D16">
-        <v>1.055405913089545</v>
+        <v>0.9550126057822886</v>
       </c>
       <c r="E16">
-        <v>1.046270435637817</v>
+        <v>0.9338573557981807</v>
       </c>
       <c r="F16">
-        <v>1.057347192756591</v>
+        <v>0.880042211794818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069582484597839</v>
+        <v>1.015411983493058</v>
       </c>
       <c r="J16">
-        <v>1.06398597319402</v>
+        <v>0.9506040287276597</v>
       </c>
       <c r="K16">
-        <v>1.068808055436981</v>
+        <v>0.9702053423295505</v>
       </c>
       <c r="L16">
-        <v>1.059817289620458</v>
+        <v>0.9494926075039759</v>
       </c>
       <c r="M16">
-        <v>1.070718995871928</v>
+        <v>0.8969328842985036</v>
       </c>
       <c r="N16">
-        <v>1.065496955316852</v>
+        <v>0.9519539954842591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040436965146027</v>
+        <v>0.9247805731572867</v>
       </c>
       <c r="D17">
-        <v>1.058036854098242</v>
+        <v>0.9595727225128843</v>
       </c>
       <c r="E17">
-        <v>1.049096445481124</v>
+        <v>0.9389802187944691</v>
       </c>
       <c r="F17">
-        <v>1.060262280907017</v>
+        <v>0.8877891094749681</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.07106425768615</v>
+        <v>1.01753347631458</v>
       </c>
       <c r="J17">
-        <v>1.066425242730247</v>
+        <v>0.9554712080270749</v>
       </c>
       <c r="K17">
-        <v>1.071098449619577</v>
+        <v>0.9743287701575898</v>
       </c>
       <c r="L17">
-        <v>1.062295118618547</v>
+        <v>0.9541499909957362</v>
       </c>
       <c r="M17">
-        <v>1.073290213027099</v>
+        <v>0.9040991897834632</v>
       </c>
       <c r="N17">
-        <v>1.067939688895609</v>
+        <v>0.9568280867365528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042274573602041</v>
+        <v>0.9281503159824679</v>
       </c>
       <c r="D18">
-        <v>1.059553591466403</v>
+        <v>0.9621626680599871</v>
       </c>
       <c r="E18">
-        <v>1.050725384935423</v>
+        <v>0.9418888452653432</v>
       </c>
       <c r="F18">
-        <v>1.061942971167512</v>
+        <v>0.892176231765945</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071916897071858</v>
+        <v>1.018735439664685</v>
       </c>
       <c r="J18">
-        <v>1.067830425589359</v>
+        <v>0.9582322887593221</v>
       </c>
       <c r="K18">
-        <v>1.072417859208567</v>
+        <v>0.9766681306313457</v>
       </c>
       <c r="L18">
-        <v>1.063722434058096</v>
+        <v>0.9567921686929505</v>
       </c>
       <c r="M18">
-        <v>1.07477178366266</v>
+        <v>0.908157681892653</v>
       </c>
       <c r="N18">
-        <v>1.069346867275558</v>
+        <v>0.9595930885201399</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042897467030643</v>
+        <v>0.9292843122336234</v>
       </c>
       <c r="D19">
-        <v>1.060067802357046</v>
+        <v>0.963034548953257</v>
       </c>
       <c r="E19">
-        <v>1.051277592654954</v>
+        <v>0.9428678587838417</v>
       </c>
       <c r="F19">
-        <v>1.062512790904752</v>
+        <v>0.8936511228011335</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.072205690934125</v>
+        <v>1.019139572302095</v>
       </c>
       <c r="J19">
-        <v>1.068306638904819</v>
+        <v>0.9591612511644656</v>
       </c>
       <c r="K19">
-        <v>1.072865001789903</v>
+        <v>0.9774552308573774</v>
       </c>
       <c r="L19">
-        <v>1.064206134213172</v>
+        <v>0.9576811399335114</v>
       </c>
       <c r="M19">
-        <v>1.075273948188935</v>
+        <v>0.9095221045214263</v>
       </c>
       <c r="N19">
-        <v>1.069823756868547</v>
+        <v>0.9605233701584525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040097181490249</v>
+        <v>0.9241534169001794</v>
       </c>
       <c r="D20">
-        <v>1.057756441679525</v>
+        <v>0.95909084939198</v>
       </c>
       <c r="E20">
-        <v>1.048795268838511</v>
+        <v>0.9384389796933075</v>
       </c>
       <c r="F20">
-        <v>1.059951568771975</v>
+        <v>0.8869718634610756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.07090649310183</v>
+        <v>1.017309604821551</v>
       </c>
       <c r="J20">
-        <v>1.066165369155199</v>
+        <v>0.9549572340820778</v>
       </c>
       <c r="K20">
-        <v>1.070854437880682</v>
+        <v>0.9738933133643068</v>
       </c>
       <c r="L20">
-        <v>1.062031145302064</v>
+        <v>0.953658158563055</v>
       </c>
       <c r="M20">
-        <v>1.073016242798607</v>
+        <v>0.9033431715333112</v>
       </c>
       <c r="N20">
-        <v>1.067679446270277</v>
+        <v>0.9563133828896002</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030724694073881</v>
+        <v>0.9062991541682204</v>
       </c>
       <c r="D21">
-        <v>1.050026799277087</v>
+        <v>0.9453939755357442</v>
       </c>
       <c r="E21">
-        <v>1.040490749694899</v>
+        <v>0.9230444966112135</v>
       </c>
       <c r="F21">
-        <v>1.051387996438114</v>
+        <v>0.8635988727120896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06654238299794</v>
+        <v>1.010916801914047</v>
       </c>
       <c r="J21">
-        <v>1.05899171779628</v>
+        <v>0.9403134189459244</v>
       </c>
       <c r="K21">
-        <v>1.064118579998121</v>
+        <v>0.9614893804250675</v>
       </c>
       <c r="L21">
-        <v>1.054743578115996</v>
+        <v>0.9396468154104013</v>
       </c>
       <c r="M21">
-        <v>1.065457095719637</v>
+        <v>0.8817244420164355</v>
       </c>
       <c r="N21">
-        <v>1.060495607503599</v>
+        <v>0.9416487718562843</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024609172442509</v>
+        <v>0.8939777226861774</v>
       </c>
       <c r="D22">
-        <v>1.044988870712515</v>
+        <v>0.9359677829194788</v>
       </c>
       <c r="E22">
-        <v>1.03507554050615</v>
+        <v>0.9124378522591718</v>
       </c>
       <c r="F22">
-        <v>1.04580768502315</v>
+        <v>0.8473318493776982</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063682980037124</v>
+        <v>1.006487131622149</v>
       </c>
       <c r="J22">
-        <v>1.054305998885655</v>
+        <v>0.9301960834189582</v>
       </c>
       <c r="K22">
-        <v>1.059718839547881</v>
+        <v>0.9529242008111853</v>
       </c>
       <c r="L22">
-        <v>1.049982760862082</v>
+        <v>0.9299692692508517</v>
       </c>
       <c r="M22">
-        <v>1.060523208146559</v>
+        <v>0.8666849789866481</v>
       </c>
       <c r="N22">
-        <v>1.055803234334661</v>
+        <v>0.9315170685523949</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027873393676629</v>
+        <v>0.9006286580959797</v>
       </c>
       <c r="D23">
-        <v>1.04767734166722</v>
+        <v>0.9410530974987785</v>
       </c>
       <c r="E23">
-        <v>1.037965600076841</v>
+        <v>0.9181612905648741</v>
       </c>
       <c r="F23">
-        <v>1.048785498123795</v>
+        <v>0.8561277971687764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065210301787646</v>
+        <v>1.008879730242805</v>
       </c>
       <c r="J23">
-        <v>1.05680748458181</v>
+        <v>0.9356583235431253</v>
       </c>
       <c r="K23">
-        <v>1.06206764680677</v>
+        <v>0.9575478701215632</v>
       </c>
       <c r="L23">
-        <v>1.052524399584472</v>
+        <v>0.9351937090020653</v>
       </c>
       <c r="M23">
-        <v>1.063156833502386</v>
+        <v>0.8748162460809537</v>
       </c>
       <c r="N23">
-        <v>1.058308272427429</v>
+        <v>0.9369870656840664</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040250783612653</v>
+        <v>0.9244370883752818</v>
       </c>
       <c r="D24">
-        <v>1.057883202949562</v>
+        <v>0.9593088013114064</v>
       </c>
       <c r="E24">
-        <v>1.048931417427797</v>
+        <v>0.9386837858235336</v>
       </c>
       <c r="F24">
-        <v>1.060092026676001</v>
+        <v>0.887341544445249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.070977816029296</v>
+        <v>1.01741087143718</v>
       </c>
       <c r="J24">
-        <v>1.066282849055611</v>
+        <v>0.9551897153786412</v>
       </c>
       <c r="K24">
-        <v>1.070964747226512</v>
+        <v>0.9740902790924827</v>
       </c>
       <c r="L24">
-        <v>1.06215047880442</v>
+        <v>0.9538806244526835</v>
       </c>
       <c r="M24">
-        <v>1.073140094140556</v>
+        <v>0.9036851556904983</v>
       </c>
       <c r="N24">
-        <v>1.067797093005622</v>
+        <v>0.9565461943362705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053749566080767</v>
+        <v>0.9484363546424576</v>
       </c>
       <c r="D25">
-        <v>1.069032858534789</v>
+        <v>0.9777809965531653</v>
       </c>
       <c r="E25">
-        <v>1.06090164243865</v>
+        <v>0.959415700529137</v>
       </c>
       <c r="F25">
-        <v>1.072449637688798</v>
+        <v>0.9184594125893478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07721743873732</v>
+        <v>1.025933814807561</v>
       </c>
       <c r="J25">
-        <v>1.076594209901194</v>
+        <v>0.9748330026477544</v>
       </c>
       <c r="K25">
-        <v>1.080646354233072</v>
+        <v>0.990734313280195</v>
       </c>
       <c r="L25">
-        <v>1.072622770325508</v>
+        <v>0.97267849830894</v>
       </c>
       <c r="M25">
-        <v>1.084018515646762</v>
+        <v>0.9324708030929545</v>
       </c>
       <c r="N25">
-        <v>1.078123097166336</v>
+        <v>0.9762173773264223</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507796</v>
+        <v>0.9867718440818153</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974283</v>
+        <v>1.007876168650213</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264226</v>
+        <v>0.9925246330763914</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304503</v>
+        <v>1.010891789641046</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.040513435534975</v>
       </c>
       <c r="J2">
-        <v>0.988755019043051</v>
+        <v>1.009355536296576</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.019226855741668</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858105</v>
+        <v>1.004089103495574</v>
       </c>
       <c r="M2">
-        <v>0.952773535414713</v>
+        <v>1.022201441701673</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010788936932815</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.026143196349762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726559</v>
+        <v>0.9950808643431538</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836442</v>
+        <v>1.014248856262455</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632381</v>
+        <v>0.999740788774468</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614458</v>
+        <v>1.015902086248303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.043247342876144</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.015706534195818</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.024702609607972</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096973</v>
+        <v>1.010376987331345</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>1.026335461098252</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017148953977544</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.029415054640953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851463014</v>
+        <v>1.000255255749528</v>
       </c>
       <c r="D4">
-        <v>1.005228524489157</v>
+        <v>1.018217805935858</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860836</v>
+        <v>1.004233557566574</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189446</v>
+        <v>1.019044225171782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.044931024023805</v>
       </c>
       <c r="J4">
-        <v>1.003800998517013</v>
+        <v>1.019652434312008</v>
       </c>
       <c r="K4">
-        <v>1.015264252778433</v>
+        <v>1.028101219922309</v>
       </c>
       <c r="L4">
-        <v>1.000391854265676</v>
+        <v>1.014281154415752</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722132</v>
+        <v>1.02891811072678</v>
       </c>
       <c r="N4">
-        <v>1.005226511072491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.0211004577245</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031459077730144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353943</v>
+        <v>1.00238528004361</v>
       </c>
       <c r="D5">
-        <v>1.007455842516652</v>
+        <v>1.019851556787153</v>
       </c>
       <c r="E5">
-        <v>0.992667586598993</v>
+        <v>1.006082669831326</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635556</v>
+        <v>1.020342733542062</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.045619487253394</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.021274485070477</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.029497406691001</v>
       </c>
       <c r="L5">
-        <v>1.002628475881025</v>
+        <v>1.015885460049206</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954481</v>
+        <v>1.029983081264782</v>
       </c>
       <c r="N5">
-        <v>1.00756880691956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.022724811981098</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032301940746557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745873</v>
+        <v>1.002740348747549</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.020123890648538</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488197</v>
+        <v>1.006390890298237</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851116</v>
+        <v>1.020559482319949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.045733977407112</v>
       </c>
       <c r="J6">
-        <v>1.006528934323711</v>
+        <v>1.021544740557316</v>
       </c>
       <c r="K6">
-        <v>1.017571711774972</v>
+        <v>1.029729976528939</v>
       </c>
       <c r="L6">
-        <v>1.003000395017314</v>
+        <v>1.016152724664831</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486415</v>
+        <v>1.030160712478245</v>
       </c>
       <c r="N6">
-        <v>1.007958320860933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.022995451261727</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03244252555121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>1.000283891342775</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.018239770151747</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987653</v>
+        <v>1.004258418013448</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624466</v>
+        <v>1.019061662280718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.044940298020674</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.019674249905765</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.028120001370604</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.014302733669284</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927396</v>
+        <v>1.028932420886649</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.021122304298902</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031470403406552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387351</v>
+        <v>0.989623729814094</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524732</v>
+        <v>1.010063268967055</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857644</v>
+        <v>0.9950015925782535</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917555</v>
+        <v>1.012606644647973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.041455725207436</v>
       </c>
       <c r="J8">
-        <v>0.991973959178113</v>
+        <v>1.011537267848298</v>
       </c>
       <c r="K8">
-        <v>1.005253905520323</v>
+        <v>1.021108630678986</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737353</v>
+        <v>1.006249698886128</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455036</v>
+        <v>1.023618516295914</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012973766793589</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.027264737897333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.940492124553819</v>
+        <v>0.9691327673559664</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397524</v>
+        <v>0.9943577981782421</v>
       </c>
       <c r="E9">
-        <v>0.95254881286894</v>
+        <v>0.9772034331393921</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377848</v>
+        <v>1.000393013344406</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.034606901484695</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523503</v>
+        <v>0.9958246752657286</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107443</v>
+        <v>1.007543084307465</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112729</v>
+        <v>0.9906775239028662</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590706</v>
+        <v>1.01347971739781</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9972388605272927</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.019240360022695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767517</v>
+        <v>0.9546181820161543</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360311</v>
+        <v>0.9832674058855833</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866851</v>
+        <v>0.9647110660266061</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765296</v>
+        <v>0.9921015638292164</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.029695721201948</v>
       </c>
       <c r="J10">
-        <v>0.95004287338496</v>
+        <v>0.9847556863251876</v>
       </c>
       <c r="K10">
-        <v>0.969729971789268</v>
+        <v>0.9979454905399813</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703431</v>
+        <v>0.979748108204372</v>
       </c>
       <c r="M10">
-        <v>0.896105609743304</v>
+        <v>1.006614906549561</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9861541523528253</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.013860155836783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683175</v>
+        <v>0.9524577124272898</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151998</v>
+        <v>0.9817392626959149</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330556</v>
+        <v>0.9638085218949434</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241351</v>
+        <v>0.9925965066423151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.029214806681694</v>
       </c>
       <c r="J11">
-        <v>0.941290357135826</v>
+        <v>0.9839513611123335</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240278</v>
+        <v>0.9970139664539209</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734409</v>
+        <v>0.9794468277564028</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924791</v>
+        <v>1.007659405730948</v>
       </c>
       <c r="N11">
-        <v>0.942627097410472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9853486849059117</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.015135073897322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766093</v>
+        <v>0.9532475524480477</v>
       </c>
       <c r="D12">
-        <v>0.943129551159236</v>
+        <v>0.9824292234497252</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105201</v>
+        <v>0.9652194772589873</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019154</v>
+        <v>0.9942349859059602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.029669180343927</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235857</v>
+        <v>0.9851713737766096</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509782</v>
+        <v>0.9979009756241591</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671021</v>
+        <v>0.9810447944098836</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933896</v>
+        <v>1.00947347425336</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9865704301281084</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.016903953657496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294944</v>
+        <v>0.9563048243426976</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657273</v>
+        <v>0.98482934371232</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987748</v>
+        <v>0.9684378860438837</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436758</v>
+        <v>0.9968532043367077</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041493</v>
+        <v>1.030858037244508</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065365</v>
+        <v>0.9879810183245542</v>
       </c>
       <c r="K13">
-        <v>0.960058586238504</v>
+        <v>1.000208044689711</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337838</v>
+        <v>0.9841496559370314</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124487</v>
+        <v>1.011996703844822</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9893840646935818</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.019180917117257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423203</v>
+        <v>0.9593803569679732</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628876</v>
+        <v>0.9872135029910896</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841627</v>
+        <v>0.9714169710067599</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152729</v>
+        <v>0.9990643058103965</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363595</v>
+        <v>1.031987439929386</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041552</v>
+        <v>0.9905845749852997</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338561</v>
+        <v>1.002397942146873</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150453</v>
+        <v>0.986916538083358</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598185</v>
+        <v>1.014020881610531</v>
       </c>
       <c r="N14">
-        <v>0.942348622873828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9919913187034179</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.020956927999982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.908917915534313</v>
+        <v>0.9606626054079048</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>0.9881990526032827</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184389</v>
+        <v>0.9725786746296555</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>0.9998794805000756</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.032439172278411</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591504</v>
+        <v>0.9916070073370935</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840491</v>
+        <v>1.003273815651327</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475327</v>
+        <v>0.9879620082689</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695114</v>
+        <v>1.014731729752664</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9930152030264257</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.021556805606292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247817</v>
+        <v>0.9660551756029719</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822886</v>
+        <v>0.9923037964050863</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9770499828128895</v>
       </c>
       <c r="F16">
-        <v>0.880042211794818</v>
+        <v>1.002833220701534</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.034242284985881</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276597</v>
+        <v>0.9956021131273639</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295505</v>
+        <v>1.00677632163466</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039759</v>
+        <v>0.9918084121493448</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985036</v>
+        <v>1.017114980264249</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9970159823251631</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023401275096609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572867</v>
+        <v>0.9686251403345504</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128843</v>
+        <v>0.9942388457615311</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944691</v>
+        <v>0.9789700622074345</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749681</v>
+        <v>1.003966577670091</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01753347631458</v>
+        <v>1.035047805802564</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270749</v>
+        <v>0.9973447889306947</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575898</v>
+        <v>1.008348648598674</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957362</v>
+        <v>0.9933571512912632</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834632</v>
+        <v>1.017905414030343</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9987611329280225</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.02389528853568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824679</v>
+        <v>0.9688618023983855</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599871</v>
+        <v>0.9943681169518024</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653432</v>
+        <v>0.9787081114798019</v>
       </c>
       <c r="F18">
-        <v>0.892176231765945</v>
+        <v>1.003418800837329</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664685</v>
+        <v>1.035011309998862</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593221</v>
+        <v>0.9971550753075196</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313457</v>
+        <v>1.008284777353767</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929505</v>
+        <v>0.9929047785428976</v>
       </c>
       <c r="M18">
-        <v>0.908157681892653</v>
+        <v>1.017178781120771</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.998571149889742</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023079466620663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336234</v>
+        <v>0.9668541284206649</v>
       </c>
       <c r="D19">
-        <v>0.963034548953257</v>
+        <v>0.9927573235255372</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9763491266755349</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>1.001187148407059</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.034161674940219</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644656</v>
+        <v>0.9950882533897786</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573774</v>
+        <v>1.006637035413621</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>0.9905221745720839</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214263</v>
+        <v>1.014920987949695</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.99650139284781</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.020962414428652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001794</v>
+        <v>0.958462342907162</v>
       </c>
       <c r="D20">
-        <v>0.95909084939198</v>
+        <v>0.9862031348823487</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933075</v>
+        <v>0.9680230504461704</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610756</v>
+        <v>0.994296396171691</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821551</v>
+        <v>1.031004171201566</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820778</v>
+        <v>0.9876940162716713</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643068</v>
+        <v>1.000493002866084</v>
       </c>
       <c r="L20">
-        <v>0.953658158563055</v>
+        <v>0.9826524875899767</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333112</v>
+        <v>1.008440283514004</v>
       </c>
       <c r="N20">
-        <v>0.9563133828896002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9890966550648643</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.015293924366634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682204</v>
+        <v>0.9463743473976097</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357442</v>
+        <v>0.9769560689192781</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112135</v>
+        <v>0.9574440994635169</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120896</v>
+        <v>0.9871085560005685</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914047</v>
+        <v>1.026831470286734</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459244</v>
+        <v>0.9782987828857647</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250675</v>
+        <v>0.99238757455634</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104013</v>
+        <v>0.9732791919380865</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164355</v>
+        <v>1.002338347037703</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.979688079369901</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.010422382886921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861774</v>
+        <v>0.9386401753864027</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194788</v>
+        <v>0.9710568729737026</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591718</v>
+        <v>0.9507341834742152</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776982</v>
+        <v>0.9826586113076596</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.024159867280333</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189582</v>
+        <v>0.9723314513962633</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111853</v>
+        <v>0.9872243619633564</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508517</v>
+        <v>0.9673491319247359</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866481</v>
+        <v>0.9985816139318033</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9737122735852225</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.00744904241529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959797</v>
+        <v>0.9427810272264033</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987785</v>
+        <v>0.9742142306712732</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648741</v>
+        <v>0.9543262408852311</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687764</v>
+        <v>0.9850370766138064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.025591772932944</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431253</v>
+        <v>0.9755268774981156</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215632</v>
+        <v>0.9899893013735244</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020653</v>
+        <v>0.9705249657269026</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809537</v>
+        <v>1.000591058165359</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9769122375586597</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.009039458380673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752818</v>
+        <v>0.9582278592904699</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114064</v>
+        <v>0.9860125069319717</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235336</v>
+        <v>0.9677334034325633</v>
       </c>
       <c r="F24">
-        <v>0.887341544445249</v>
+        <v>0.9939918115879869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.030899328864085</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786412</v>
+        <v>0.9874344435176557</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924827</v>
+        <v>1.000289793475134</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526835</v>
+        <v>0.9823518846987591</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904983</v>
+        <v>1.0081252657288</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9888367136877647</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.015002526979781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9746567591667159</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531653</v>
+        <v>0.9985891857293702</v>
       </c>
       <c r="E25">
-        <v>0.959415700529137</v>
+        <v>0.9820014355088547</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893478</v>
+        <v>1.003661335879622</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.036469893509998</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>1.000068196966261</v>
       </c>
       <c r="K25">
-        <v>0.990734313280195</v>
+        <v>1.011209442322687</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>0.9948857332944889</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>1.016203078974018</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264223</v>
+        <v>1.001488408515378</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.021395780760569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
@@ -433,43 +433,43 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9867718440818153</v>
+        <v>1.030866699911229</v>
       </c>
       <c r="D2">
-        <v>1.007876168650213</v>
+        <v>1.046342341077328</v>
       </c>
       <c r="E2">
-        <v>0.9925246330763914</v>
+        <v>1.041946786723488</v>
       </c>
       <c r="F2">
-        <v>1.010891789641046</v>
+        <v>1.05023049916031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040513435534975</v>
+        <v>1.061817213719469</v>
       </c>
       <c r="J2">
-        <v>1.009355536296576</v>
+        <v>1.052161820581608</v>
       </c>
       <c r="K2">
-        <v>1.019226855741668</v>
+        <v>1.057191709460576</v>
       </c>
       <c r="L2">
-        <v>1.004089103495574</v>
+        <v>1.052851104093847</v>
       </c>
       <c r="M2">
-        <v>1.022201441701673</v>
+        <v>1.061031738687747</v>
       </c>
       <c r="N2">
-        <v>1.010788936932815</v>
+        <v>1.020744219655744</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.026143196349762</v>
+        <v>1.056874736064959</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -480,43 +480,43 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9950808643431538</v>
+        <v>1.035061613573453</v>
       </c>
       <c r="D3">
-        <v>1.014248856262455</v>
+        <v>1.049417894264705</v>
       </c>
       <c r="E3">
-        <v>0.999740788774468</v>
+        <v>1.045258157214057</v>
       </c>
       <c r="F3">
-        <v>1.015902086248303</v>
+        <v>1.053383853135484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043247342876144</v>
+        <v>1.063219606452499</v>
       </c>
       <c r="J3">
-        <v>1.015706534195818</v>
+        <v>1.054640047940227</v>
       </c>
       <c r="K3">
-        <v>1.024702609607972</v>
+        <v>1.059455223527049</v>
       </c>
       <c r="L3">
-        <v>1.010376987331345</v>
+        <v>1.055342936210032</v>
       </c>
       <c r="M3">
-        <v>1.026335461098252</v>
+        <v>1.063376372964199</v>
       </c>
       <c r="N3">
-        <v>1.017148953977544</v>
+        <v>1.021606556811344</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029415054640953</v>
+        <v>1.058730313716159</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -527,43 +527,43 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000255255749528</v>
+        <v>1.037724209853263</v>
       </c>
       <c r="D4">
-        <v>1.018217805935858</v>
+        <v>1.051372535408231</v>
       </c>
       <c r="E4">
-        <v>1.004233557566574</v>
+        <v>1.047365353551287</v>
       </c>
       <c r="F4">
-        <v>1.019044225171782</v>
+        <v>1.05539162556737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044931024023805</v>
+        <v>1.064099714190244</v>
       </c>
       <c r="J4">
-        <v>1.019652434312008</v>
+        <v>1.056209791180171</v>
       </c>
       <c r="K4">
-        <v>1.028101219922309</v>
+        <v>1.060888088564982</v>
       </c>
       <c r="L4">
-        <v>1.014281154415752</v>
+        <v>1.056923850348192</v>
       </c>
       <c r="M4">
-        <v>1.02891811072678</v>
+        <v>1.064864508191894</v>
       </c>
       <c r="N4">
-        <v>1.0211004577245</v>
+        <v>1.022152330839682</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031459077730144</v>
+        <v>1.059908043246595</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -574,43 +574,43 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00238528004361</v>
+        <v>1.038831554947938</v>
       </c>
       <c r="D5">
-        <v>1.019851556787153</v>
+        <v>1.052186012473465</v>
       </c>
       <c r="E5">
-        <v>1.006082669831326</v>
+        <v>1.048242972475436</v>
       </c>
       <c r="F5">
-        <v>1.020342733542062</v>
+        <v>1.056228101687807</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045619487253394</v>
+        <v>1.064463300156339</v>
       </c>
       <c r="J5">
-        <v>1.021274485070477</v>
+        <v>1.056861821799077</v>
       </c>
       <c r="K5">
-        <v>1.029497406691001</v>
+        <v>1.061483045555445</v>
       </c>
       <c r="L5">
-        <v>1.015885460049206</v>
+        <v>1.057581133787154</v>
       </c>
       <c r="M5">
-        <v>1.029983081264782</v>
+        <v>1.065483362177047</v>
       </c>
       <c r="N5">
-        <v>1.022724811981098</v>
+        <v>1.022378919737394</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032301940746557</v>
+        <v>1.060397811792501</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -621,43 +621,43 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002740348747549</v>
+        <v>1.039016789758203</v>
       </c>
       <c r="D6">
-        <v>1.020123890648538</v>
+        <v>1.052322121395655</v>
       </c>
       <c r="E6">
-        <v>1.006390890298237</v>
+        <v>1.048389851998415</v>
       </c>
       <c r="F6">
-        <v>1.020559482319949</v>
+        <v>1.05636811097315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045733977407112</v>
+        <v>1.064523975617917</v>
       </c>
       <c r="J6">
-        <v>1.021544740557316</v>
+        <v>1.056970843927647</v>
       </c>
       <c r="K6">
-        <v>1.029729976528939</v>
+        <v>1.061582511703987</v>
       </c>
       <c r="L6">
-        <v>1.016152724664831</v>
+        <v>1.057691070238008</v>
       </c>
       <c r="M6">
-        <v>1.030160712478245</v>
+        <v>1.065586879407901</v>
       </c>
       <c r="N6">
-        <v>1.022995451261727</v>
+        <v>1.022416799597972</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03244252555121</v>
+        <v>1.06047973655363</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -668,43 +668,43 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000283891342775</v>
+        <v>1.037739052941829</v>
       </c>
       <c r="D7">
-        <v>1.018239770151747</v>
+        <v>1.051383437260336</v>
       </c>
       <c r="E7">
-        <v>1.004258418013448</v>
+        <v>1.047377112419384</v>
       </c>
       <c r="F7">
-        <v>1.019061662280718</v>
+        <v>1.055402832136574</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044940298020674</v>
+        <v>1.06410459746403</v>
       </c>
       <c r="J7">
-        <v>1.019674249905765</v>
+        <v>1.056218534372049</v>
       </c>
       <c r="K7">
-        <v>1.028120001370604</v>
+        <v>1.060896067318202</v>
       </c>
       <c r="L7">
-        <v>1.014302733669284</v>
+        <v>1.056932661554719</v>
       </c>
       <c r="M7">
-        <v>1.028932420886649</v>
+        <v>1.064872803664326</v>
       </c>
       <c r="N7">
-        <v>1.021122304298902</v>
+        <v>1.022155369657141</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031470403406552</v>
+        <v>1.05991460838609</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -715,43 +715,43 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.989623729814094</v>
+        <v>1.032295354628655</v>
       </c>
       <c r="D8">
-        <v>1.010063268967055</v>
+        <v>1.04738922124182</v>
       </c>
       <c r="E8">
-        <v>0.9950015925782535</v>
+        <v>1.043073379310918</v>
       </c>
       <c r="F8">
-        <v>1.012606644647973</v>
+        <v>1.051303091828249</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041455725207436</v>
+        <v>1.062296900360233</v>
       </c>
       <c r="J8">
-        <v>1.011537267848298</v>
+        <v>1.05300648495905</v>
       </c>
       <c r="K8">
-        <v>1.021108630678986</v>
+        <v>1.057963371173225</v>
       </c>
       <c r="L8">
-        <v>1.006249698886128</v>
+        <v>1.053699869641059</v>
       </c>
       <c r="M8">
-        <v>1.023618516295914</v>
+        <v>1.061830237141576</v>
       </c>
       <c r="N8">
-        <v>1.012973766793589</v>
+        <v>1.02103822302802</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.027264737897333</v>
+        <v>1.057506679853505</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -762,43 +762,43 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9691327673559664</v>
+        <v>1.022287803511089</v>
       </c>
       <c r="D9">
-        <v>0.9943577981782421</v>
+        <v>1.040068478969739</v>
       </c>
       <c r="E9">
-        <v>0.9772034331393921</v>
+        <v>1.035206223159341</v>
       </c>
       <c r="F9">
-        <v>1.000393013344406</v>
+        <v>1.043818011451999</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034606901484695</v>
+        <v>1.058895892047574</v>
       </c>
       <c r="J9">
-        <v>0.9958246752657286</v>
+        <v>1.047077347208076</v>
       </c>
       <c r="K9">
-        <v>1.007543084307465</v>
+        <v>1.052543281414122</v>
       </c>
       <c r="L9">
-        <v>0.9906775239028662</v>
+        <v>1.047752808177457</v>
       </c>
       <c r="M9">
-        <v>1.01347971739781</v>
+        <v>1.056238037922602</v>
       </c>
       <c r="N9">
-        <v>0.9972388605272927</v>
+        <v>1.018972804097555</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.019240360022695</v>
+        <v>1.053080917544924</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -809,43 +809,43 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9546181820161543</v>
+        <v>1.015395520541208</v>
       </c>
       <c r="D10">
-        <v>0.9832674058855833</v>
+        <v>1.035065420094653</v>
       </c>
       <c r="E10">
-        <v>0.9647110660266061</v>
+        <v>1.029848335571778</v>
       </c>
       <c r="F10">
-        <v>0.9921015638292164</v>
+        <v>1.038756068642721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029695721201948</v>
+        <v>1.056526926490424</v>
       </c>
       <c r="J10">
-        <v>0.9847556863251876</v>
+        <v>1.043011352702047</v>
       </c>
       <c r="K10">
-        <v>0.9979454905399813</v>
+        <v>1.048829161223509</v>
       </c>
       <c r="L10">
-        <v>0.979748108204372</v>
+        <v>1.043698800670906</v>
       </c>
       <c r="M10">
-        <v>1.006614906549561</v>
+        <v>1.052459136171366</v>
       </c>
       <c r="N10">
-        <v>0.9861541523528253</v>
+        <v>1.017568156621104</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.013860155836783</v>
+        <v>1.050140935873401</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -856,43 +856,43 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9524577124272898</v>
+        <v>1.013026725183208</v>
       </c>
       <c r="D11">
-        <v>0.9817392626959149</v>
+        <v>1.033521105437651</v>
       </c>
       <c r="E11">
-        <v>0.9638085218949434</v>
+        <v>1.028240255915968</v>
       </c>
       <c r="F11">
-        <v>0.9925965066423151</v>
+        <v>1.037471964494867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029214806681694</v>
+        <v>1.055887623373812</v>
       </c>
       <c r="J11">
-        <v>0.9839513611123335</v>
+        <v>1.041867442056493</v>
       </c>
       <c r="K11">
-        <v>0.9970139664539209</v>
+        <v>1.04783738956066</v>
       </c>
       <c r="L11">
-        <v>0.9794468277564028</v>
+        <v>1.042648554741145</v>
       </c>
       <c r="M11">
-        <v>1.007659405730948</v>
+        <v>1.051720199611142</v>
       </c>
       <c r="N11">
-        <v>0.9853486849059117</v>
+        <v>1.01728909773634</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.015135073897322</v>
+        <v>1.04998664981317</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -903,43 +903,43 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9532475524480477</v>
+        <v>1.012402064655563</v>
       </c>
       <c r="D12">
-        <v>0.9824292234497252</v>
+        <v>1.033197795160395</v>
       </c>
       <c r="E12">
-        <v>0.9652194772589873</v>
+        <v>1.027927721119286</v>
       </c>
       <c r="F12">
-        <v>0.9942349859059602</v>
+        <v>1.03734860079428</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029669180343927</v>
+        <v>1.055807038913233</v>
       </c>
       <c r="J12">
-        <v>0.9851713737766096</v>
+        <v>1.041690665760029</v>
       </c>
       <c r="K12">
-        <v>0.9979009756241591</v>
+        <v>1.047715466090333</v>
       </c>
       <c r="L12">
-        <v>0.9810447944098836</v>
+        <v>1.042538740592518</v>
       </c>
       <c r="M12">
-        <v>1.00947347425336</v>
+        <v>1.051793613212225</v>
       </c>
       <c r="N12">
-        <v>0.9865704301281084</v>
+        <v>1.017321746842973</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.016903953657496</v>
+        <v>1.050367231470598</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -950,43 +950,43 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9563048243426976</v>
+        <v>1.013082327719042</v>
       </c>
       <c r="D13">
-        <v>0.98482934371232</v>
+        <v>1.033796582037213</v>
       </c>
       <c r="E13">
-        <v>0.9684378860438837</v>
+        <v>1.028594971051661</v>
       </c>
       <c r="F13">
-        <v>0.9968532043367077</v>
+        <v>1.038121017341536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030858037244508</v>
+        <v>1.056158129222564</v>
       </c>
       <c r="J13">
-        <v>0.9879810183245542</v>
+        <v>1.04225252108183</v>
       </c>
       <c r="K13">
-        <v>1.000208044689711</v>
+        <v>1.048261764751412</v>
       </c>
       <c r="L13">
-        <v>0.9841496559370314</v>
+        <v>1.043151836566068</v>
       </c>
       <c r="M13">
-        <v>1.011996703844822</v>
+        <v>1.052510883228845</v>
       </c>
       <c r="N13">
-        <v>0.9893840646935818</v>
+        <v>1.017598042818703</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.019180917117257</v>
+        <v>1.051208094173664</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -997,43 +997,43 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9593803569679732</v>
+        <v>1.01414611554473</v>
       </c>
       <c r="D14">
-        <v>0.9872135029910896</v>
+        <v>1.034630171939516</v>
       </c>
       <c r="E14">
-        <v>0.9714169710067599</v>
+        <v>1.029502099182135</v>
       </c>
       <c r="F14">
-        <v>0.9990643058103965</v>
+        <v>1.039064396537775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031987439929386</v>
+        <v>1.056597064550698</v>
       </c>
       <c r="J14">
-        <v>0.9905845749852997</v>
+        <v>1.042976846269662</v>
       </c>
       <c r="K14">
-        <v>1.002397942146873</v>
+        <v>1.048943438540026</v>
       </c>
       <c r="L14">
-        <v>0.986916538083358</v>
+        <v>1.043904568783201</v>
       </c>
       <c r="M14">
-        <v>1.014020881610531</v>
+        <v>1.053301446736323</v>
       </c>
       <c r="N14">
-        <v>0.9919913187034179</v>
+        <v>1.017899826627088</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.020956927999982</v>
+        <v>1.052004720816475</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1044,43 +1044,43 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9606626054079048</v>
+        <v>1.014693715690952</v>
       </c>
       <c r="D15">
-        <v>0.9881990526032827</v>
+        <v>1.035039905725823</v>
       </c>
       <c r="E15">
-        <v>0.9725786746296555</v>
+        <v>1.029943401670102</v>
       </c>
       <c r="F15">
-        <v>0.9998794805000756</v>
+        <v>1.039500581818946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032439172278411</v>
+        <v>1.05680191294151</v>
       </c>
       <c r="J15">
-        <v>0.9916070073370935</v>
+        <v>1.043320270118034</v>
       </c>
       <c r="K15">
-        <v>1.003273815651327</v>
+        <v>1.049261519472123</v>
       </c>
       <c r="L15">
-        <v>0.9879620082689</v>
+        <v>1.044252972477862</v>
       </c>
       <c r="M15">
-        <v>1.014731729752664</v>
+        <v>1.053646125428694</v>
       </c>
       <c r="N15">
-        <v>0.9930152030264257</v>
+        <v>1.018029087140139</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.021556805606292</v>
+        <v>1.052314370357411</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1091,43 +1091,43 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9660551756029719</v>
+        <v>1.017484356664727</v>
       </c>
       <c r="D16">
-        <v>0.9923037964050863</v>
+        <v>1.037048121475264</v>
       </c>
       <c r="E16">
-        <v>0.9770499828128895</v>
+        <v>1.03208714931664</v>
       </c>
       <c r="F16">
-        <v>1.002833220701534</v>
+        <v>1.041518620496329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034242284985881</v>
+        <v>1.057755017006092</v>
       </c>
       <c r="J16">
-        <v>0.9956021131273639</v>
+        <v>1.044946421567343</v>
       </c>
       <c r="K16">
-        <v>1.00677632163466</v>
+        <v>1.050744387101237</v>
       </c>
       <c r="L16">
-        <v>0.9918084121493448</v>
+        <v>1.04586521013307</v>
       </c>
       <c r="M16">
-        <v>1.017114980264249</v>
+        <v>1.055142034817269</v>
       </c>
       <c r="N16">
-        <v>0.9970159823251631</v>
+        <v>1.018574129867487</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023401275096609</v>
+        <v>1.05345838053969</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1138,43 +1138,43 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9686251403345504</v>
+        <v>1.019067684776379</v>
       </c>
       <c r="D17">
-        <v>0.9942388457615311</v>
+        <v>1.038151577746192</v>
       </c>
       <c r="E17">
-        <v>0.9789700622074345</v>
+        <v>1.033256514298524</v>
       </c>
       <c r="F17">
-        <v>1.003966577670091</v>
+        <v>1.042568501851048</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035047805802564</v>
+        <v>1.058252797412528</v>
       </c>
       <c r="J17">
-        <v>0.9973447889306947</v>
+        <v>1.045812338429825</v>
       </c>
       <c r="K17">
-        <v>1.008348648598674</v>
+        <v>1.051522179921314</v>
       </c>
       <c r="L17">
-        <v>0.9933571512912632</v>
+        <v>1.04670552381048</v>
       </c>
       <c r="M17">
-        <v>1.017905414030343</v>
+        <v>1.055869164133548</v>
       </c>
       <c r="N17">
-        <v>0.9987611329280225</v>
+        <v>1.0188333224065</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.02389528853568</v>
+        <v>1.053905362931085</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1185,43 +1185,43 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688618023983855</v>
+        <v>1.019747972182134</v>
       </c>
       <c r="D18">
-        <v>0.9943681169518024</v>
+        <v>1.038560145625778</v>
       </c>
       <c r="E18">
-        <v>0.9787081114798019</v>
+        <v>1.033672739698001</v>
       </c>
       <c r="F18">
-        <v>1.003418800837329</v>
+        <v>1.042846041184934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035011309998862</v>
+        <v>1.058394282131542</v>
       </c>
       <c r="J18">
-        <v>0.9971550753075196</v>
+        <v>1.046085138436412</v>
       </c>
       <c r="K18">
-        <v>1.008284777353767</v>
+        <v>1.051744896719176</v>
       </c>
       <c r="L18">
-        <v>0.9929047785428976</v>
+        <v>1.046934493553546</v>
       </c>
       <c r="M18">
-        <v>1.017178781120771</v>
+        <v>1.055964025355469</v>
       </c>
       <c r="N18">
-        <v>0.998571149889742</v>
+        <v>1.018860557769241</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023079466620663</v>
+        <v>1.053745335805444</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1232,43 +1232,43 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9668541284206649</v>
+        <v>1.019606090809323</v>
       </c>
       <c r="D19">
-        <v>0.9927573235255372</v>
+        <v>1.038334913058711</v>
       </c>
       <c r="E19">
-        <v>0.9763491266755349</v>
+        <v>1.033401408772226</v>
       </c>
       <c r="F19">
-        <v>1.001187148407059</v>
+        <v>1.042417775851845</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034161674940219</v>
+        <v>1.058212430884697</v>
       </c>
       <c r="J19">
-        <v>0.9950882533897786</v>
+        <v>1.045817908083989</v>
       </c>
       <c r="K19">
-        <v>1.006637035413621</v>
+        <v>1.05146201557138</v>
       </c>
       <c r="L19">
-        <v>0.9905221745720839</v>
+        <v>1.046605874758073</v>
       </c>
       <c r="M19">
-        <v>1.014920987949695</v>
+        <v>1.055481561129864</v>
       </c>
       <c r="N19">
-        <v>0.99650139284781</v>
+        <v>1.018680435138518</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.020962414428652</v>
+        <v>1.053042495665236</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1276,46 +1276,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.958462342907162</v>
+        <v>1.017185619175808</v>
       </c>
       <c r="D20">
-        <v>0.9862031348823487</v>
+        <v>1.036364371199725</v>
       </c>
       <c r="E20">
-        <v>0.9680230504461704</v>
+        <v>1.031238678447608</v>
       </c>
       <c r="F20">
-        <v>0.994296396171691</v>
+        <v>1.040070707566276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031004171201566</v>
+        <v>1.057146789938635</v>
       </c>
       <c r="J20">
-        <v>0.9876940162716713</v>
+        <v>1.044069768725718</v>
       </c>
       <c r="K20">
-        <v>1.000493002866084</v>
+        <v>1.049796577063583</v>
       </c>
       <c r="L20">
-        <v>0.9826524875899767</v>
+        <v>1.044753607748218</v>
       </c>
       <c r="M20">
-        <v>1.008440283514004</v>
+        <v>1.053443747739014</v>
       </c>
       <c r="N20">
-        <v>0.9890966550648643</v>
+        <v>1.017934474555378</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.015293924366634</v>
+        <v>1.050909738534129</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9463743473976097</v>
+        <v>1.011872751819274</v>
       </c>
       <c r="D21">
-        <v>0.9769560689192781</v>
+        <v>1.032482243640313</v>
       </c>
       <c r="E21">
-        <v>0.9574440994635169</v>
+        <v>1.02707763026889</v>
       </c>
       <c r="F21">
-        <v>0.9871085560005685</v>
+        <v>1.036095895903691</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026831470286734</v>
+        <v>1.055268564922577</v>
       </c>
       <c r="J21">
-        <v>0.9782987828857647</v>
+        <v>1.040882330547958</v>
       </c>
       <c r="K21">
-        <v>0.99238757455634</v>
+        <v>1.046873297946104</v>
       </c>
       <c r="L21">
-        <v>0.9732791919380865</v>
+        <v>1.041563547450602</v>
       </c>
       <c r="M21">
-        <v>1.002338347037703</v>
+        <v>1.050424236776499</v>
       </c>
       <c r="N21">
-        <v>0.979688079369901</v>
+        <v>1.016811570183602</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.010422382886921</v>
+        <v>1.048479748137088</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1373,43 +1373,43 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9386401753864027</v>
+        <v>1.008501980331464</v>
       </c>
       <c r="D22">
-        <v>0.9710568729737026</v>
+        <v>1.030034537649771</v>
       </c>
       <c r="E22">
-        <v>0.9507341834742152</v>
+        <v>1.024459354346946</v>
       </c>
       <c r="F22">
-        <v>0.9826586113076596</v>
+        <v>1.03361096608963</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024159867280333</v>
+        <v>1.054078603901536</v>
       </c>
       <c r="J22">
-        <v>0.9723314513962633</v>
+        <v>1.038873495982491</v>
       </c>
       <c r="K22">
-        <v>0.9872243619633564</v>
+        <v>1.04503359601827</v>
       </c>
       <c r="L22">
-        <v>0.9673491319247359</v>
+        <v>1.039561355581607</v>
       </c>
       <c r="M22">
-        <v>0.9985816139318033</v>
+        <v>1.048544748246003</v>
       </c>
       <c r="N22">
-        <v>0.9737122735852225</v>
+        <v>1.016110272612222</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.00744904241529</v>
+        <v>1.046992273718561</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1420,43 +1420,43 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9427810272264033</v>
+        <v>1.010295977014325</v>
       </c>
       <c r="D23">
-        <v>0.9742142306712732</v>
+        <v>1.031336788190511</v>
       </c>
       <c r="E23">
-        <v>0.9543262408852311</v>
+        <v>1.025852104732832</v>
       </c>
       <c r="F23">
-        <v>0.9850370766138064</v>
+        <v>1.034932641384527</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025591772932944</v>
+        <v>1.054712814895834</v>
       </c>
       <c r="J23">
-        <v>0.9755268774981156</v>
+        <v>1.039942834936753</v>
       </c>
       <c r="K23">
-        <v>0.9899893013735244</v>
+        <v>1.046012960524186</v>
       </c>
       <c r="L23">
-        <v>0.9705249657269026</v>
+        <v>1.040626882746103</v>
       </c>
       <c r="M23">
-        <v>1.000591058165359</v>
+        <v>1.049544901850732</v>
       </c>
       <c r="N23">
-        <v>0.9769122375586597</v>
+        <v>1.016483609616823</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.009039458380673</v>
+        <v>1.047783820768209</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1467,43 +1467,43 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9582278592904699</v>
+        <v>1.017205245570787</v>
       </c>
       <c r="D24">
-        <v>0.9860125069319717</v>
+        <v>1.036362077771769</v>
       </c>
       <c r="E24">
-        <v>0.9677334034325633</v>
+        <v>1.031232105892387</v>
       </c>
       <c r="F24">
-        <v>0.9939918115879869</v>
+        <v>1.040041183784054</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030899328864085</v>
+        <v>1.057135701328023</v>
       </c>
       <c r="J24">
-        <v>0.9874344435176557</v>
+        <v>1.044056709573273</v>
       </c>
       <c r="K24">
-        <v>1.000289793475134</v>
+        <v>1.049779369888403</v>
       </c>
       <c r="L24">
-        <v>0.9823518846987591</v>
+        <v>1.044732085705134</v>
       </c>
       <c r="M24">
-        <v>1.0081252657288</v>
+        <v>1.053399817494832</v>
       </c>
       <c r="N24">
-        <v>0.9888367136877647</v>
+        <v>1.017919327364111</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.015002526979781</v>
+        <v>1.050834691345419</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1514,43 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9746567591667159</v>
+        <v>1.024926880576954</v>
       </c>
       <c r="D25">
-        <v>0.9985891857293702</v>
+        <v>1.041996138398976</v>
       </c>
       <c r="E25">
-        <v>0.9820014355088547</v>
+        <v>1.037275371026638</v>
       </c>
       <c r="F25">
-        <v>1.003661335879622</v>
+        <v>1.045785557973607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036469893509998</v>
+        <v>1.059801606450214</v>
       </c>
       <c r="J25">
-        <v>1.000068196966261</v>
+        <v>1.048643521698025</v>
       </c>
       <c r="K25">
-        <v>1.011209442322687</v>
+        <v>1.053975710994689</v>
       </c>
       <c r="L25">
-        <v>0.9948857332944889</v>
+        <v>1.049321335864074</v>
       </c>
       <c r="M25">
-        <v>1.016203078974018</v>
+        <v>1.057712383682184</v>
       </c>
       <c r="N25">
-        <v>1.001488408515378</v>
+        <v>1.01951872847922</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.021395780760569</v>
+        <v>1.05424774255203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030866699911229</v>
+        <v>1.028148353370099</v>
       </c>
       <c r="D2">
-        <v>1.046342341077328</v>
+        <v>1.042807332749289</v>
       </c>
       <c r="E2">
-        <v>1.041946786723488</v>
+        <v>1.039577864712867</v>
       </c>
       <c r="F2">
-        <v>1.05023049916031</v>
+        <v>1.047713635892659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061817213719469</v>
+        <v>1.059796863735899</v>
       </c>
       <c r="J2">
-        <v>1.052161820581608</v>
+        <v>1.049518554436102</v>
       </c>
       <c r="K2">
-        <v>1.057191709460576</v>
+        <v>1.053700846931799</v>
       </c>
       <c r="L2">
-        <v>1.052851104093847</v>
+        <v>1.050512036525411</v>
       </c>
       <c r="M2">
-        <v>1.061031738687747</v>
+        <v>1.058545979176748</v>
       </c>
       <c r="N2">
-        <v>1.020744219655744</v>
+        <v>1.019988742874117</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056874736064959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.054907464933429</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026115962514344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035061613573453</v>
+        <v>1.032072442618601</v>
       </c>
       <c r="D3">
-        <v>1.049417894264705</v>
+        <v>1.045563853314011</v>
       </c>
       <c r="E3">
-        <v>1.045258157214057</v>
+        <v>1.042645392928504</v>
       </c>
       <c r="F3">
-        <v>1.053383853135484</v>
+        <v>1.050627877960767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063219606452499</v>
+        <v>1.061007195991975</v>
       </c>
       <c r="J3">
-        <v>1.054640047940227</v>
+        <v>1.05172539045989</v>
       </c>
       <c r="K3">
-        <v>1.059455223527049</v>
+        <v>1.05564512939976</v>
       </c>
       <c r="L3">
-        <v>1.055342936210032</v>
+        <v>1.052760214568178</v>
       </c>
       <c r="M3">
-        <v>1.063376372964199</v>
+        <v>1.060651492007446</v>
       </c>
       <c r="N3">
-        <v>1.021606556811344</v>
+        <v>1.020592981613811</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.058730313716159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.05657380289083</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026543675727177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037724209853263</v>
+        <v>1.034565090600209</v>
       </c>
       <c r="D4">
-        <v>1.051372535408231</v>
+        <v>1.047317366293762</v>
       </c>
       <c r="E4">
-        <v>1.047365353551287</v>
+        <v>1.044599433366024</v>
       </c>
       <c r="F4">
-        <v>1.05539162556737</v>
+        <v>1.052485246743775</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064099714190244</v>
+        <v>1.061766064846903</v>
       </c>
       <c r="J4">
-        <v>1.056209791180171</v>
+        <v>1.053124120960412</v>
       </c>
       <c r="K4">
-        <v>1.060888088564982</v>
+        <v>1.056876379794695</v>
       </c>
       <c r="L4">
-        <v>1.056923850348192</v>
+        <v>1.054187807319144</v>
       </c>
       <c r="M4">
-        <v>1.064864508191894</v>
+        <v>1.061988946354075</v>
       </c>
       <c r="N4">
-        <v>1.022152330839682</v>
+        <v>1.020975810447288</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059908043246595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.057632284669576</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026811963215523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038831554947938</v>
+        <v>1.035602194449474</v>
       </c>
       <c r="D5">
-        <v>1.052186012473465</v>
+        <v>1.048047506617036</v>
       </c>
       <c r="E5">
-        <v>1.048242972475436</v>
+        <v>1.045413725339888</v>
       </c>
       <c r="F5">
-        <v>1.056228101687807</v>
+        <v>1.053259481620626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064463300156339</v>
+        <v>1.062079378612935</v>
       </c>
       <c r="J5">
-        <v>1.056861821799077</v>
+        <v>1.053705313001508</v>
       </c>
       <c r="K5">
-        <v>1.061483045555445</v>
+        <v>1.057387716590796</v>
       </c>
       <c r="L5">
-        <v>1.057581133787154</v>
+        <v>1.054781631116159</v>
       </c>
       <c r="M5">
-        <v>1.065483362177047</v>
+        <v>1.062545382877543</v>
       </c>
       <c r="N5">
-        <v>1.022378919737394</v>
+        <v>1.021134842958581</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.060397811792501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.058072656594429</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026922759711836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039016789758203</v>
+        <v>1.035775704368048</v>
       </c>
       <c r="D6">
-        <v>1.052322121395655</v>
+        <v>1.048169692839416</v>
       </c>
       <c r="E6">
-        <v>1.048389851998415</v>
+        <v>1.045550032794695</v>
       </c>
       <c r="F6">
-        <v>1.05636811097315</v>
+        <v>1.053389097020081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064523975617917</v>
+        <v>1.062131653145188</v>
       </c>
       <c r="J6">
-        <v>1.056970843927647</v>
+        <v>1.053802501632711</v>
       </c>
       <c r="K6">
-        <v>1.061582511703987</v>
+        <v>1.057473208005834</v>
       </c>
       <c r="L6">
-        <v>1.057691070238008</v>
+        <v>1.054880969675899</v>
       </c>
       <c r="M6">
-        <v>1.065586879407901</v>
+        <v>1.06263847328187</v>
       </c>
       <c r="N6">
-        <v>1.022416799597972</v>
+        <v>1.021161434515229</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.06047973655363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.058146329664194</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02694124717857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037739052941829</v>
+        <v>1.034588744773419</v>
       </c>
       <c r="D7">
-        <v>1.051383437260336</v>
+        <v>1.047334892415463</v>
       </c>
       <c r="E7">
-        <v>1.047377112419384</v>
+        <v>1.044618961702471</v>
       </c>
       <c r="F7">
-        <v>1.055402832136574</v>
+        <v>1.052502790329868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.06410459746403</v>
+        <v>1.061775670349255</v>
       </c>
       <c r="J7">
-        <v>1.056218534372049</v>
+        <v>1.053141440202878</v>
       </c>
       <c r="K7">
-        <v>1.060896067318202</v>
+        <v>1.056890895989313</v>
       </c>
       <c r="L7">
-        <v>1.056932661554719</v>
+        <v>1.054204293084233</v>
       </c>
       <c r="M7">
-        <v>1.064872803664326</v>
+        <v>1.062003500435505</v>
       </c>
       <c r="N7">
-        <v>1.022155369657141</v>
+        <v>1.02100705398043</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05991460838609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05764380298366</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026816221911792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032295354628655</v>
+        <v>1.029514387482901</v>
       </c>
       <c r="D8">
-        <v>1.04738922124182</v>
+        <v>1.043769169580365</v>
       </c>
       <c r="E8">
-        <v>1.043073379310918</v>
+        <v>1.040647712936618</v>
       </c>
       <c r="F8">
-        <v>1.051303091828249</v>
+        <v>1.048726651424167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062296900360233</v>
+        <v>1.060227602550097</v>
       </c>
       <c r="J8">
-        <v>1.05300648495905</v>
+        <v>1.050299756884441</v>
       </c>
       <c r="K8">
-        <v>1.057963371173225</v>
+        <v>1.054387185343539</v>
       </c>
       <c r="L8">
-        <v>1.053699869641059</v>
+        <v>1.051303857539171</v>
       </c>
       <c r="M8">
-        <v>1.061830237141576</v>
+        <v>1.059284690179396</v>
       </c>
       <c r="N8">
-        <v>1.02103822302802</v>
+        <v>1.020283434016177</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057506679853505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.055492093552049</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026270947578149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022287803511089</v>
+        <v>1.020169937984975</v>
       </c>
       <c r="D9">
-        <v>1.040068478969739</v>
+        <v>1.037221852173024</v>
       </c>
       <c r="E9">
-        <v>1.035206223159341</v>
+        <v>1.033376536928376</v>
       </c>
       <c r="F9">
-        <v>1.043818011451999</v>
+        <v>1.041824046671376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058895892047574</v>
+        <v>1.057291494593312</v>
       </c>
       <c r="J9">
-        <v>1.047077347208076</v>
+        <v>1.045030011059972</v>
       </c>
       <c r="K9">
-        <v>1.052543281414122</v>
+        <v>1.049738576248726</v>
       </c>
       <c r="L9">
-        <v>1.047752808177457</v>
+        <v>1.045950356486697</v>
       </c>
       <c r="M9">
-        <v>1.056238037922602</v>
+        <v>1.054273140187179</v>
       </c>
       <c r="N9">
-        <v>1.018972804097555</v>
+        <v>1.018849980425553</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053080917544924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.051525857656583</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025234630296936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015395520541208</v>
+        <v>1.013782924566963</v>
       </c>
       <c r="D10">
-        <v>1.035065420094653</v>
+        <v>1.032787818007476</v>
       </c>
       <c r="E10">
-        <v>1.029848335571778</v>
+        <v>1.02847019283583</v>
       </c>
       <c r="F10">
-        <v>1.038756068642721</v>
+        <v>1.037197938963667</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056526926490424</v>
+        <v>1.055266356470925</v>
       </c>
       <c r="J10">
-        <v>1.043011352702047</v>
+        <v>1.041460171418897</v>
       </c>
       <c r="K10">
-        <v>1.048829161223509</v>
+        <v>1.046589281122193</v>
       </c>
       <c r="L10">
-        <v>1.043698800670906</v>
+        <v>1.042343756300198</v>
       </c>
       <c r="M10">
-        <v>1.052459136171366</v>
+        <v>1.050926554133295</v>
       </c>
       <c r="N10">
-        <v>1.017568156621104</v>
+        <v>1.018001263367565</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050140935873401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.048928088527959</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024533147967644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013026725183208</v>
+        <v>1.011590828171562</v>
       </c>
       <c r="D11">
-        <v>1.033521105437651</v>
+        <v>1.031433502169451</v>
       </c>
       <c r="E11">
-        <v>1.028240255915968</v>
+        <v>1.027011022035166</v>
       </c>
       <c r="F11">
-        <v>1.037471964494867</v>
+        <v>1.036061046767284</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055887623373812</v>
+        <v>1.054743929844125</v>
       </c>
       <c r="J11">
-        <v>1.041867442056493</v>
+        <v>1.040489240315383</v>
       </c>
       <c r="K11">
-        <v>1.04783738956066</v>
+        <v>1.04578601537139</v>
       </c>
       <c r="L11">
-        <v>1.042648554741145</v>
+        <v>1.041440915292163</v>
       </c>
       <c r="M11">
-        <v>1.051720199611142</v>
+        <v>1.050333506297194</v>
       </c>
       <c r="N11">
-        <v>1.01728909773634</v>
+        <v>1.018044252142425</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04998664981317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.048889792928723</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024428031583755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012402064655563</v>
+        <v>1.010991088744754</v>
       </c>
       <c r="D12">
-        <v>1.033197795160395</v>
+        <v>1.031138856801316</v>
       </c>
       <c r="E12">
-        <v>1.027927721119286</v>
+        <v>1.026713003153118</v>
       </c>
       <c r="F12">
-        <v>1.03734860079428</v>
+        <v>1.035957669445968</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055807038913233</v>
+        <v>1.054680946396348</v>
       </c>
       <c r="J12">
-        <v>1.041690665760029</v>
+        <v>1.040337461699438</v>
       </c>
       <c r="K12">
-        <v>1.047715466090333</v>
+        <v>1.045692850292672</v>
       </c>
       <c r="L12">
-        <v>1.042538740592518</v>
+        <v>1.041345715348178</v>
       </c>
       <c r="M12">
-        <v>1.051793613212225</v>
+        <v>1.050426945654849</v>
       </c>
       <c r="N12">
-        <v>1.017321746842973</v>
+        <v>1.018163795734541</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050367231470598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.049286572290507</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024461425050282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013082327719042</v>
+        <v>1.011567903501411</v>
       </c>
       <c r="D13">
-        <v>1.033796582037213</v>
+        <v>1.031633752232345</v>
       </c>
       <c r="E13">
-        <v>1.028594971051661</v>
+        <v>1.027281527768216</v>
       </c>
       <c r="F13">
-        <v>1.038121017341536</v>
+        <v>1.036644279134524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056158129222564</v>
+        <v>1.054967368273501</v>
       </c>
       <c r="J13">
-        <v>1.04225252108183</v>
+        <v>1.040799769415522</v>
       </c>
       <c r="K13">
-        <v>1.048261764751412</v>
+        <v>1.04613691108812</v>
       </c>
       <c r="L13">
-        <v>1.043151836566068</v>
+        <v>1.041861734401054</v>
       </c>
       <c r="M13">
-        <v>1.052510883228845</v>
+        <v>1.051059773277757</v>
       </c>
       <c r="N13">
-        <v>1.017598042818703</v>
+        <v>1.018314493775751</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051208094173664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.050060946869795</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024603390090307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01414611554473</v>
+        <v>1.012503281493369</v>
       </c>
       <c r="D14">
-        <v>1.034630171939516</v>
+        <v>1.032336624244757</v>
       </c>
       <c r="E14">
-        <v>1.029502099182135</v>
+        <v>1.028070729793715</v>
       </c>
       <c r="F14">
-        <v>1.039064396537775</v>
+        <v>1.037481621016299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056597064550698</v>
+        <v>1.055325023456656</v>
       </c>
       <c r="J14">
-        <v>1.042976846269662</v>
+        <v>1.041399928672126</v>
       </c>
       <c r="K14">
-        <v>1.048943438540026</v>
+        <v>1.046689645387808</v>
       </c>
       <c r="L14">
-        <v>1.043904568783201</v>
+        <v>1.042498304002077</v>
       </c>
       <c r="M14">
-        <v>1.053301446736323</v>
+        <v>1.051745779656091</v>
       </c>
       <c r="N14">
-        <v>1.017899826627088</v>
+        <v>1.01843504350013</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052004720816475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.050775081196317</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02475174615175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014693715690952</v>
+        <v>1.012992081568958</v>
       </c>
       <c r="D15">
-        <v>1.035039905725823</v>
+        <v>1.032685873796176</v>
       </c>
       <c r="E15">
-        <v>1.029943401670102</v>
+        <v>1.028459217176265</v>
       </c>
       <c r="F15">
-        <v>1.039500581818946</v>
+        <v>1.037869302141024</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05680191294151</v>
+        <v>1.055492310098392</v>
       </c>
       <c r="J15">
-        <v>1.043320270118034</v>
+        <v>1.041686305375673</v>
       </c>
       <c r="K15">
-        <v>1.049261519472123</v>
+        <v>1.046947974628641</v>
       </c>
       <c r="L15">
-        <v>1.044252972477862</v>
+        <v>1.042794614726235</v>
       </c>
       <c r="M15">
-        <v>1.053646125428694</v>
+        <v>1.052042566841743</v>
       </c>
       <c r="N15">
-        <v>1.018029087140139</v>
+        <v>1.018476501011149</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052314370357411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.051046908928387</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024814121143496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017484356664727</v>
+        <v>1.01552483570056</v>
       </c>
       <c r="D16">
-        <v>1.037048121475264</v>
+        <v>1.034422865216352</v>
       </c>
       <c r="E16">
-        <v>1.03208714931664</v>
+        <v>1.030376357395519</v>
       </c>
       <c r="F16">
-        <v>1.041518620496329</v>
+        <v>1.039673488317679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057755017006092</v>
+        <v>1.056277740781018</v>
       </c>
       <c r="J16">
-        <v>1.044946421567343</v>
+        <v>1.04306089534082</v>
       </c>
       <c r="K16">
-        <v>1.050744387101237</v>
+        <v>1.048162289619007</v>
       </c>
       <c r="L16">
-        <v>1.04586521013307</v>
+        <v>1.044182860557281</v>
       </c>
       <c r="M16">
-        <v>1.055142034817269</v>
+        <v>1.053326873388424</v>
       </c>
       <c r="N16">
-        <v>1.018574129867487</v>
+        <v>1.01862895011055</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.05345838053969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.052023626239833</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02507435817488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019067684776379</v>
+        <v>1.016988081185848</v>
       </c>
       <c r="D17">
-        <v>1.038151577746192</v>
+        <v>1.035394708629908</v>
       </c>
       <c r="E17">
-        <v>1.033256514298524</v>
+        <v>1.031442142082293</v>
       </c>
       <c r="F17">
-        <v>1.042568501851048</v>
+        <v>1.0406221135284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058252797412528</v>
+        <v>1.056694998160334</v>
       </c>
       <c r="J17">
-        <v>1.045812338429825</v>
+        <v>1.043808729927909</v>
       </c>
       <c r="K17">
-        <v>1.051522179921314</v>
+        <v>1.048809352380111</v>
       </c>
       <c r="L17">
-        <v>1.04670552381048</v>
+        <v>1.044920456247926</v>
       </c>
       <c r="M17">
-        <v>1.055869164133548</v>
+        <v>1.053953502248062</v>
       </c>
       <c r="N17">
-        <v>1.0188333224065</v>
+        <v>1.018711705534016</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.053905362931085</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.052391021551546</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025197053448572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019747972182134</v>
+        <v>1.01764476816808</v>
       </c>
       <c r="D18">
-        <v>1.038560145625778</v>
+        <v>1.035771806815998</v>
       </c>
       <c r="E18">
-        <v>1.033672739698001</v>
+        <v>1.031841794651931</v>
       </c>
       <c r="F18">
-        <v>1.042846041184934</v>
+        <v>1.040878253337508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058394282131542</v>
+        <v>1.056818034586325</v>
       </c>
       <c r="J18">
-        <v>1.046085138436412</v>
+        <v>1.044057360010249</v>
       </c>
       <c r="K18">
-        <v>1.051744896719176</v>
+        <v>1.049000375188129</v>
       </c>
       <c r="L18">
-        <v>1.046934493553546</v>
+        <v>1.045132636354293</v>
       </c>
       <c r="M18">
-        <v>1.055964025355469</v>
+        <v>1.05402680501679</v>
       </c>
       <c r="N18">
-        <v>1.018860557769241</v>
+        <v>1.018695998680157</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.053745335805444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.052213639464246</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025202771196515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019606090809323</v>
+        <v>1.017559353131872</v>
       </c>
       <c r="D19">
-        <v>1.038334913058711</v>
+        <v>1.035600317604252</v>
       </c>
       <c r="E19">
-        <v>1.033401408772226</v>
+        <v>1.031626385836272</v>
       </c>
       <c r="F19">
-        <v>1.042417775851845</v>
+        <v>1.040495773142625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058212430884697</v>
+        <v>1.056670167792077</v>
       </c>
       <c r="J19">
-        <v>1.045817908083989</v>
+        <v>1.043844166763496</v>
       </c>
       <c r="K19">
-        <v>1.05146201557138</v>
+        <v>1.048770185488019</v>
       </c>
       <c r="L19">
-        <v>1.046605874758073</v>
+        <v>1.044858918195716</v>
       </c>
       <c r="M19">
-        <v>1.055481561129864</v>
+        <v>1.05358928585245</v>
       </c>
       <c r="N19">
-        <v>1.018680435138518</v>
+        <v>1.018571835859478</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053042495665236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.051545858692305</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025101055812415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017185619175808</v>
+        <v>1.015413303081588</v>
       </c>
       <c r="D20">
-        <v>1.036364371199725</v>
+        <v>1.033916266606554</v>
       </c>
       <c r="E20">
-        <v>1.031238678447608</v>
+        <v>1.029717853739589</v>
       </c>
       <c r="F20">
-        <v>1.040070707566276</v>
+        <v>1.038378293198574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057146789938635</v>
+        <v>1.05578144354849</v>
       </c>
       <c r="J20">
-        <v>1.044069768725718</v>
+        <v>1.042362730327374</v>
       </c>
       <c r="K20">
-        <v>1.049796577063583</v>
+        <v>1.047387851056529</v>
       </c>
       <c r="L20">
-        <v>1.044753607748218</v>
+        <v>1.043257531157283</v>
       </c>
       <c r="M20">
-        <v>1.053443747739014</v>
+        <v>1.051778282878853</v>
       </c>
       <c r="N20">
-        <v>1.017934474555378</v>
+        <v>1.018144996526328</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050909738534129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.049591715830607</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024708984505723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011872751819274</v>
+        <v>1.010640578880122</v>
       </c>
       <c r="D21">
-        <v>1.032482243640313</v>
+        <v>1.030594517381979</v>
       </c>
       <c r="E21">
-        <v>1.02707763026889</v>
+        <v>1.026041309810952</v>
       </c>
       <c r="F21">
-        <v>1.036095895903691</v>
+        <v>1.034852134159808</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055268564922577</v>
+        <v>1.054250554426172</v>
       </c>
       <c r="J21">
-        <v>1.040882330547958</v>
+        <v>1.039700061311761</v>
       </c>
       <c r="K21">
-        <v>1.046873297946104</v>
+        <v>1.045018558956937</v>
       </c>
       <c r="L21">
-        <v>1.041563547450602</v>
+        <v>1.040545564829126</v>
       </c>
       <c r="M21">
-        <v>1.050424236776499</v>
+        <v>1.049201996037956</v>
       </c>
       <c r="N21">
-        <v>1.016811570183602</v>
+        <v>1.017842336121006</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048479748137088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.047512436465216</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024181157846644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008501980331464</v>
+        <v>1.007610528301071</v>
       </c>
       <c r="D22">
-        <v>1.030034537649771</v>
+        <v>1.028500383767214</v>
       </c>
       <c r="E22">
-        <v>1.024459354346946</v>
+        <v>1.023728712681726</v>
       </c>
       <c r="F22">
-        <v>1.03361096608963</v>
+        <v>1.032650434235498</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054078603901536</v>
+        <v>1.053278983830198</v>
       </c>
       <c r="J22">
-        <v>1.038873495982491</v>
+        <v>1.03802028418064</v>
       </c>
       <c r="K22">
-        <v>1.04503359601827</v>
+        <v>1.04352762447452</v>
       </c>
       <c r="L22">
-        <v>1.039561355581607</v>
+        <v>1.038844313261278</v>
       </c>
       <c r="M22">
-        <v>1.048544748246003</v>
+        <v>1.047601690020667</v>
       </c>
       <c r="N22">
-        <v>1.016110272612222</v>
+        <v>1.017651737073009</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046992273718561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.046245912629491</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023851557529514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010295977014325</v>
+        <v>1.009207112302393</v>
       </c>
       <c r="D23">
-        <v>1.031336788190511</v>
+        <v>1.02960146917447</v>
       </c>
       <c r="E23">
-        <v>1.025852104732832</v>
+        <v>1.024944137412648</v>
       </c>
       <c r="F23">
-        <v>1.034932641384527</v>
+        <v>1.033809290866687</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054712814895834</v>
+        <v>1.053788154557013</v>
       </c>
       <c r="J23">
-        <v>1.039942834936753</v>
+        <v>1.038899286798832</v>
       </c>
       <c r="K23">
-        <v>1.046012960524186</v>
+        <v>1.04430869213258</v>
       </c>
       <c r="L23">
-        <v>1.040626882746103</v>
+        <v>1.039735371640145</v>
       </c>
       <c r="M23">
-        <v>1.049544901850732</v>
+        <v>1.048441455549333</v>
       </c>
       <c r="N23">
-        <v>1.016483609616823</v>
+        <v>1.017708176171063</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047783820768209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.046910525197887</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024022153590924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017205245570787</v>
+        <v>1.015436954476106</v>
       </c>
       <c r="D24">
-        <v>1.036362077771769</v>
+        <v>1.033917439310235</v>
       </c>
       <c r="E24">
-        <v>1.031232105892387</v>
+        <v>1.02971559662458</v>
       </c>
       <c r="F24">
-        <v>1.040041183784054</v>
+        <v>1.038351966423282</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057135701328023</v>
+        <v>1.055772608431189</v>
       </c>
       <c r="J24">
-        <v>1.044056709573273</v>
+        <v>1.042353452972017</v>
       </c>
       <c r="K24">
-        <v>1.049779369888403</v>
+        <v>1.047374004123639</v>
       </c>
       <c r="L24">
-        <v>1.044732085705134</v>
+        <v>1.04324022306153</v>
       </c>
       <c r="M24">
-        <v>1.053399817494832</v>
+        <v>1.051737466290968</v>
       </c>
       <c r="N24">
-        <v>1.017919327364111</v>
+        <v>1.01813184313394</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050834691345419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.049519069180429</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024699291017547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024926880576954</v>
+        <v>1.022620109465351</v>
       </c>
       <c r="D25">
-        <v>1.041996138398976</v>
+        <v>1.038934593663582</v>
       </c>
       <c r="E25">
-        <v>1.037275371026638</v>
+        <v>1.035276216415048</v>
       </c>
       <c r="F25">
-        <v>1.045785557973607</v>
+        <v>1.043627726548312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059801606450214</v>
+        <v>1.058067324012174</v>
       </c>
       <c r="J25">
-        <v>1.048643521698025</v>
+        <v>1.046409481447001</v>
       </c>
       <c r="K25">
-        <v>1.053975710994689</v>
+        <v>1.050957136529042</v>
       </c>
       <c r="L25">
-        <v>1.049321335864074</v>
+        <v>1.047350527912579</v>
       </c>
       <c r="M25">
-        <v>1.057712383682184</v>
+        <v>1.055584528970124</v>
       </c>
       <c r="N25">
-        <v>1.01951872847922</v>
+        <v>1.019193952657857</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.05424774255203</v>
+        <v>1.052563717672619</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02550720107285</v>
       </c>
     </row>
   </sheetData>
